--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -53,8 +53,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -66,24 +66,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,19 +81,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -117,17 +95,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,17 +134,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,17 +148,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,23 +188,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,7 +219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,13 +249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +279,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,55 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,19 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,36 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,17 +413,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,6 +454,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -473,31 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,16 +518,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -908,737 +908,745 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>141</v>
+            <v>137</v>
           </cell>
           <cell r="B21" t="str">
-            <v>ファイアエンチャント</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>201</v>
+            <v>141</v>
           </cell>
           <cell r="B22" t="str">
-            <v>ディスチャージ</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>202</v>
+            <v>201</v>
           </cell>
           <cell r="B23" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="B24" t="str">
-            <v>シャープコード</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>204</v>
+            <v>203</v>
           </cell>
           <cell r="B25" t="str">
-            <v>ショックインパルス</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>205</v>
+            <v>204</v>
           </cell>
           <cell r="B26" t="str">
-            <v>トラストチェイン</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>211</v>
+            <v>205</v>
           </cell>
           <cell r="B27" t="str">
-            <v>ステップリーダー</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>212</v>
+            <v>211</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>221</v>
+            <v>212</v>
           </cell>
           <cell r="B29" t="str">
-            <v>アクセラレイト</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>231</v>
+            <v>221</v>
           </cell>
           <cell r="B30" t="str">
-            <v>エクステンション</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>232</v>
+            <v>231</v>
           </cell>
           <cell r="B31" t="str">
-            <v>スパークフォグ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>233</v>
+            <v>232</v>
           </cell>
           <cell r="B32" t="str">
-            <v>スウィートボイス</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>234</v>
+            <v>233</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ファストキャスター</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>235</v>
+            <v>234</v>
           </cell>
           <cell r="B34" t="str">
-            <v>ヘブンリーラック</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>236</v>
+            <v>235</v>
           </cell>
           <cell r="B35" t="str">
-            <v>クイックアクト</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>241</v>
+            <v>236</v>
           </cell>
           <cell r="B36" t="str">
-            <v>サンダーエンチャント</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>301</v>
+            <v>241</v>
           </cell>
           <cell r="B37" t="str">
-            <v>アイスブレイド</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>302</v>
+            <v>301</v>
           </cell>
           <cell r="B38" t="str">
-            <v>カウンターオーラ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>303</v>
+            <v>302</v>
           </cell>
           <cell r="B39" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>304</v>
+            <v>303</v>
           </cell>
           <cell r="B40" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>305</v>
+            <v>304</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ディープフリーズ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>311</v>
+            <v>305</v>
           </cell>
           <cell r="B42" t="str">
-            <v>フリジットシェル</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>312</v>
+            <v>311</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>321</v>
+            <v>312</v>
           </cell>
           <cell r="B44" t="str">
-            <v>バブルブロウ</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>331</v>
+            <v>321</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ガーディアンソウル</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>332</v>
+            <v>331</v>
           </cell>
           <cell r="B46" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>333</v>
+            <v>332</v>
           </cell>
           <cell r="B47" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>334</v>
+            <v>333</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>335</v>
+            <v>334</v>
           </cell>
           <cell r="B49" t="str">
-            <v>カウンターヒール</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>336</v>
+            <v>335</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ペイシャンス</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>341</v>
+            <v>336</v>
           </cell>
           <cell r="B51" t="str">
-            <v>アイスエンチャント</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>401</v>
+            <v>341</v>
           </cell>
           <cell r="B52" t="str">
-            <v>セイントレーザー</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>402</v>
+            <v>401</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>403</v>
+            <v>402</v>
           </cell>
           <cell r="B54" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>404</v>
+            <v>403</v>
           </cell>
           <cell r="B55" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>405</v>
+            <v>404</v>
           </cell>
           <cell r="B56" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>411</v>
+            <v>405</v>
           </cell>
           <cell r="B57" t="str">
-            <v>エリクシール</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>412</v>
+            <v>411</v>
           </cell>
           <cell r="B58" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>421</v>
+            <v>412</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>431</v>
+            <v>421</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ディバインシールド</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>432</v>
+            <v>431</v>
           </cell>
           <cell r="B61" t="str">
-            <v>メディケーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>433</v>
+            <v>432</v>
           </cell>
           <cell r="B62" t="str">
-            <v>アフェクション</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>434</v>
+            <v>433</v>
           </cell>
           <cell r="B63" t="str">
-            <v>リジェネレーション</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>435</v>
+            <v>434</v>
           </cell>
           <cell r="B64" t="str">
-            <v>アライアンス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>436</v>
+            <v>435</v>
           </cell>
           <cell r="B65" t="str">
-            <v>スペクトルマイン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>441</v>
+            <v>436</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>501</v>
+            <v>441</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>502</v>
+            <v>501</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>503</v>
+            <v>502</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="B70" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>505</v>
+            <v>504</v>
           </cell>
           <cell r="B71" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>511</v>
+            <v>505</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ディストラクション</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>512</v>
+            <v>511</v>
           </cell>
           <cell r="B73" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>521</v>
+            <v>512</v>
           </cell>
           <cell r="B74" t="str">
-            <v>ダークネス</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>531</v>
+            <v>521</v>
           </cell>
           <cell r="B75" t="str">
-            <v>イーグルアイ</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>532</v>
+            <v>531</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>533</v>
+            <v>532</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>534</v>
+            <v>533</v>
           </cell>
           <cell r="B78" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>535</v>
+            <v>534</v>
           </cell>
           <cell r="B79" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>536</v>
+            <v>535</v>
           </cell>
           <cell r="B80" t="str">
-            <v>カタストロフ</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>541</v>
+            <v>536</v>
           </cell>
           <cell r="B81" t="str">
-            <v>ダークエンチャント</v>
+            <v>カタストロフ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>1000</v>
+            <v>541</v>
           </cell>
           <cell r="B82" t="str">
-            <v>愚者</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B83" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B84" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B85" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B86" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B87" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B88" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B89" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B90" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B91" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B92" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B93" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B94" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B95" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B96" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B97" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B98" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B99" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B100" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B101" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B102" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B103" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B104" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B105" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1025</v>
+            <v>1024</v>
           </cell>
           <cell r="B106" t="str">
-            <v>貨幣</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>2001</v>
+            <v>1025</v>
           </cell>
           <cell r="B107" t="str">
-            <v>元素術・炎</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="B108" t="str">
-            <v>元素術・雷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="B109" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="B110" t="str">
-            <v>光魔術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>2005</v>
+            <v>2004</v>
           </cell>
           <cell r="B111" t="str">
-            <v>超次元術</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
+            <v>2005</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
             <v>2009</v>
           </cell>
-          <cell r="B112" t="str">
+          <cell r="B113" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -1909,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2018,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2042,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2062,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2082,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2102,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2122,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2142,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2162,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2182,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2202,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2222,7 +2230,7 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2242,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2262,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2282,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2302,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2960,10 +2968,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2996,14 +3004,14 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D2,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>アフターバーナー</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3556,7 +3564,7 @@
         <v>バブルブロウ</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3564,20 +3572,16 @@
         <v>1001</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>30</v>
       </c>
-      <c r="F33" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D33,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3585,17 +3589,13 @@
         <v>1001</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>333</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D34,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3603,20 +3603,20 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>336</v>
+        <v>505</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D35,[1]TextData!A:A))</f>
-        <v>ペイシャンス</v>
+        <v>ディプラヴィティ</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3624,19 +3624,19 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3644,17 +3644,13 @@
         <v>1002</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>505</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>100</v>
-      </c>
-      <c r="F37" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D37,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3662,121 +3658,109 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>521</v>
+        <v>205</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D38,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>トラストチェイン</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
-      <c r="F39" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D39,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="E40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1004</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>131</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D41,[1]TextData!A:A))</f>
+        <v>ウルフソウル</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1004</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>30</v>
       </c>
-      <c r="F40" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D40,[1]TextData!A:A))</f>
-        <v>カタストロフ</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1002</v>
-      </c>
-      <c r="C41">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1004</v>
+      </c>
+      <c r="C43">
         <v>2</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="E41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1003</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>205</v>
-      </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-      <c r="F42" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D42,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1003</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>234</v>
-      </c>
       <c r="E43">
-        <v>30</v>
-      </c>
-      <c r="F43" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D43,[1]TextData!A:A))</f>
-        <v>ファストキャスター</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3784,49 +3768,45 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D44,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>スパークフォグ</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>30</v>
       </c>
-      <c r="F45" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D45,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" ht="12" customHeight="1" spans="1:5">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3843,62 +3823,54 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="E47">
         <v>100</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D47,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>べネディクション</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>30</v>
       </c>
-      <c r="F48" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D48,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>30</v>
-      </c>
-      <c r="F49" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D49,[1]TextData!A:A))</f>
-        <v>スタートダッシュ</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3906,20 +3878,20 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>135</v>
+        <v>504</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D50,[1]TextData!A:A))</f>
-        <v>ライズアップマインド</v>
+        <v>デリートマジック</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3927,37 +3899,33 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1007</v>
+      </c>
+      <c r="C52">
         <v>2</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="E51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>1005</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>232</v>
-      </c>
       <c r="E52">
         <v>100</v>
-      </c>
-      <c r="F52" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D52,[1]TextData!A:A))</f>
-        <v>スパークフォグ</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3965,121 +3933,109 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D53,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>ガーディアンソウル</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>30</v>
       </c>
-      <c r="F54" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D54,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="E55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1009</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>103</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D56,[1]TextData!A:A))</f>
+        <v>ヒートスタンプ</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1009</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>30</v>
       </c>
-      <c r="F55" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D55,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
-      </c>
-    </row>
-    <row r="56" ht="12" customHeight="1" spans="1:5">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>1005</v>
-      </c>
-      <c r="C56">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1009</v>
+      </c>
+      <c r="C58">
         <v>2</v>
       </c>
-      <c r="D56">
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>1006</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>405</v>
-      </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="F57" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D57,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>1006</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>432</v>
-      </c>
       <c r="E58">
-        <v>30</v>
-      </c>
-      <c r="F58" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D58,[1]TextData!A:A))</f>
-        <v>メディケーション</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4087,49 +4043,45 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>441</v>
+        <v>204</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D59,[1]TextData!A:A))</f>
-        <v>ホーリーエンチャント</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>ショックインパルス</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>30</v>
       </c>
-      <c r="F60" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D60,[1]TextData!A:A))</f>
-        <v>アライアンス</v>
-      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4146,62 +4098,54 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>504</v>
+        <v>303</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>シールドスペル</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>531</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>30</v>
       </c>
-      <c r="F63" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D63,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>30</v>
-      </c>
-      <c r="F64" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D64,[1]TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4209,20 +4153,20 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D65,[1]TextData!A:A))</f>
-        <v>クリープアウト</v>
+        <v>ディプラヴィティ</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4230,37 +4174,33 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1012</v>
+      </c>
+      <c r="C67">
         <v>2</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>5</v>
       </c>
-      <c r="E66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>1008</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>331</v>
-      </c>
       <c r="E67">
         <v>100</v>
-      </c>
-      <c r="F67" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D67,[1]TextData!A:A))</f>
-        <v>ガーディアンソウル</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4268,121 +4208,109 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D68,[1]TextData!A:A))</f>
-        <v>ノーリミット</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>リフレッシュ</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>341</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>30</v>
       </c>
-      <c r="F69" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D69,[1]TextData!A:A))</f>
-        <v>アイスエンチャント</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="E70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1014</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>431</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D71,[1]TextData!A:A))</f>
+        <v>ディバインシールド</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1014</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
         <v>30</v>
       </c>
-      <c r="F70" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D70,[1]TextData!A:A))</f>
-        <v>カウンターヒール</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>1008</v>
-      </c>
-      <c r="C71">
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1014</v>
+      </c>
+      <c r="C73">
         <v>2</v>
       </c>
-      <c r="D71">
+      <c r="D73">
         <v>5</v>
       </c>
-      <c r="E71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>1009</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>103</v>
-      </c>
-      <c r="E72">
-        <v>100</v>
-      </c>
-      <c r="F72" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D72,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>1009</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>135</v>
-      </c>
       <c r="E73">
-        <v>30</v>
-      </c>
-      <c r="F73" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D73,[1]TextData!A:A))</f>
-        <v>ライズアップマインド</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4390,49 +4318,45 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D74,[1]TextData!A:A))</f>
-        <v>スタートダッシュ</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>ソードアダプト</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>30</v>
       </c>
-      <c r="F75" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D75,[1]TextData!A:A))</f>
-        <v>イグナイテッド</v>
-      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -4441,612 +4365,6 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>1010</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>204</v>
-      </c>
-      <c r="E77">
-        <v>100</v>
-      </c>
-      <c r="F77" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D77,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>1010</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>233</v>
-      </c>
-      <c r="E78">
-        <v>30</v>
-      </c>
-      <c r="F78" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D78,[1]TextData!A:A))</f>
-        <v>スウィートボイス</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>1010</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>241</v>
-      </c>
-      <c r="E79">
-        <v>30</v>
-      </c>
-      <c r="F79" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D79,[1]TextData!A:A))</f>
-        <v>サンダーエンチャント</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>1010</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>231</v>
-      </c>
-      <c r="E80">
-        <v>30</v>
-      </c>
-      <c r="F80" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D80,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>1010</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>1011</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>303</v>
-      </c>
-      <c r="E82">
-        <v>100</v>
-      </c>
-      <c r="F82" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D82,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83">
-        <v>1011</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>332</v>
-      </c>
-      <c r="E83">
-        <v>30</v>
-      </c>
-      <c r="F83" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D83,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84">
-        <v>1011</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>333</v>
-      </c>
-      <c r="E84">
-        <v>30</v>
-      </c>
-      <c r="F84" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D84,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>1008</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>335</v>
-      </c>
-      <c r="E85">
-        <v>30</v>
-      </c>
-      <c r="F85" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D85,[1]TextData!A:A))</f>
-        <v>カウンターヒール</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>1011</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87">
-        <v>1012</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>505</v>
-      </c>
-      <c r="E87">
-        <v>100</v>
-      </c>
-      <c r="F87" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D87,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>1012</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>534</v>
-      </c>
-      <c r="E88">
-        <v>30</v>
-      </c>
-      <c r="F88" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D88,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89">
-        <v>1012</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>541</v>
-      </c>
-      <c r="E89">
-        <v>30</v>
-      </c>
-      <c r="F89" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D89,[1]TextData!A:A))</f>
-        <v>ダークエンチャント</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>1012</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>536</v>
-      </c>
-      <c r="E90">
-        <v>30</v>
-      </c>
-      <c r="F90" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D90,[1]TextData!A:A))</f>
-        <v>カタストロフ</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>1012</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>1013</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>404</v>
-      </c>
-      <c r="E92">
-        <v>100</v>
-      </c>
-      <c r="F92" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D92,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>1013</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>431</v>
-      </c>
-      <c r="E93">
-        <v>30</v>
-      </c>
-      <c r="F93" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D93,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>1013</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>434</v>
-      </c>
-      <c r="E94">
-        <v>30</v>
-      </c>
-      <c r="F94" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D94,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>1013</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>436</v>
-      </c>
-      <c r="E95">
-        <v>30</v>
-      </c>
-      <c r="F95" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D95,[1]TextData!A:A))</f>
-        <v>スペクトルマイン</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>1013</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>1014</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>431</v>
-      </c>
-      <c r="E97">
-        <v>100</v>
-      </c>
-      <c r="F97" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D97,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>1014</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>432</v>
-      </c>
-      <c r="E98">
-        <v>30</v>
-      </c>
-      <c r="F98" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D98,[1]TextData!A:A))</f>
-        <v>メディケーション</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>1014</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>433</v>
-      </c>
-      <c r="E99">
-        <v>30</v>
-      </c>
-      <c r="F99" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D99,[1]TextData!A:A))</f>
-        <v>アフェクション</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>1014</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>435</v>
-      </c>
-      <c r="E100">
-        <v>30</v>
-      </c>
-      <c r="F100" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D100,[1]TextData!A:A))</f>
-        <v>アライアンス</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>1014</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-      <c r="E101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102">
-        <v>1015</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>104</v>
-      </c>
-      <c r="E102">
-        <v>100</v>
-      </c>
-      <c r="F102" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D102,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>1015</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>133</v>
-      </c>
-      <c r="E103">
-        <v>30</v>
-      </c>
-      <c r="F103" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D103,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>1015</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>141</v>
-      </c>
-      <c r="E104">
-        <v>30</v>
-      </c>
-      <c r="F104" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D104,[1]TextData!A:A))</f>
-        <v>ファイアエンチャント</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>1015</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>136</v>
-      </c>
-      <c r="E105">
-        <v>30</v>
-      </c>
-      <c r="F105" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D105,[1]TextData!A:A))</f>
-        <v>イグナイテッド</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>1015</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -74,13 +74,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -89,14 +82,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -104,7 +89,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,9 +102,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,22 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,9 +180,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,33 +204,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,7 +219,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,97 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,73 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,17 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,6 +424,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,7 +471,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,26 +500,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +518,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,7 +527,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1917,7 +1917,7 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2970,8 +2970,8 @@
   <sheetPr/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -3059,14 +3059,14 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D5,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+        <v>ヘブンリーラック</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3114,14 +3114,14 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D8,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>ガーディアンソウル</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3169,14 +3169,14 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D11,[1]TextData!A:A))</f>
-        <v>ペネトレイト</v>
+        <v>ディバインシールド</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3224,14 +3224,14 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>ネガティブドレイン</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3279,14 +3279,14 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D17,[1]TextData!A:A))</f>
-        <v>ノーリミット</v>
+        <v>エスコートソール</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3334,14 +3334,14 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D20,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>シャープコード</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3499,14 +3499,14 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D29,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ドレインヒール</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3578,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" ht="12" customHeight="1" spans="1:5">
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3908,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4159,14 +4159,14 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="E65">
         <v>100</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D65,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>ダークネス</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4183,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5">

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -53,9 +53,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,22 +74,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,7 +87,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -126,9 +172,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,70 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,25 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,25 +261,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,25 +297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,19 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,19 +345,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,30 +428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -471,16 +447,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +477,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2970,8 +2970,8 @@
   <sheetPr/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3097,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -3152,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3262,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3317,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -3427,7 +3427,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -3482,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -3537,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>100</v>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,6 +66,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -73,8 +88,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,31 +103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,9 +127,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,19 +164,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,18 +180,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,8 +194,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +255,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,37 +309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +333,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,19 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,73 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +410,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,25 +458,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -491,22 +497,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,849 +804,865 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>101</v>
+            <v>41</v>
           </cell>
           <cell r="B8" t="str">
-            <v>ファイアボール</v>
+            <v>アンデッド状態</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>102</v>
+            <v>42</v>
           </cell>
           <cell r="B9" t="str">
-            <v>バーンストーム</v>
+            <v>アンデッド回復</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>103</v>
+            <v>101</v>
           </cell>
           <cell r="B10" t="str">
-            <v>ヒートスタンプ</v>
+            <v>ファイアボール</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>104</v>
+            <v>102</v>
           </cell>
           <cell r="B11" t="str">
-            <v>ソードアダプト</v>
+            <v>バーンストーム</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>111</v>
+            <v>103</v>
           </cell>
           <cell r="B12" t="str">
-            <v>インフェルノ</v>
+            <v>ヒートスタンプ</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>112</v>
+            <v>104</v>
           </cell>
           <cell r="B13" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>ソードアダプト</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>121</v>
+            <v>111</v>
           </cell>
           <cell r="B14" t="str">
-            <v>メルトバースト</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>131</v>
+            <v>112</v>
           </cell>
           <cell r="B15" t="str">
-            <v>ウルフソウル</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>132</v>
+            <v>121</v>
           </cell>
           <cell r="B16" t="str">
-            <v>プリディカメント</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>133</v>
+            <v>131</v>
           </cell>
           <cell r="B17" t="str">
-            <v>アサルトシフト</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>134</v>
+            <v>132</v>
           </cell>
           <cell r="B18" t="str">
-            <v>スタートダッシュ</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>135</v>
+            <v>133</v>
           </cell>
           <cell r="B19" t="str">
-            <v>ライズアップマインド</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>136</v>
+            <v>134</v>
           </cell>
           <cell r="B20" t="str">
-            <v>イグナイテッド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>137</v>
+            <v>135</v>
           </cell>
           <cell r="B21" t="str">
-            <v>アフターバーナー</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>141</v>
+            <v>136</v>
           </cell>
           <cell r="B22" t="str">
-            <v>ファイアエンチャント</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>201</v>
+            <v>137</v>
           </cell>
           <cell r="B23" t="str">
-            <v>ディスチャージ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>202</v>
+            <v>141</v>
           </cell>
           <cell r="B24" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>203</v>
+            <v>201</v>
           </cell>
           <cell r="B25" t="str">
-            <v>シャープコード</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>204</v>
+            <v>202</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ショックインパルス</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>205</v>
+            <v>203</v>
           </cell>
           <cell r="B27" t="str">
-            <v>トラストチェイン</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>211</v>
+            <v>204</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ステップリーダー</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>212</v>
+            <v>205</v>
           </cell>
           <cell r="B29" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>221</v>
+            <v>211</v>
           </cell>
           <cell r="B30" t="str">
-            <v>アクセラレイト</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>231</v>
+            <v>212</v>
           </cell>
           <cell r="B31" t="str">
-            <v>エクステンション</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>232</v>
+            <v>221</v>
           </cell>
           <cell r="B32" t="str">
-            <v>スパークフォグ</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>233</v>
+            <v>231</v>
           </cell>
           <cell r="B33" t="str">
-            <v>スウィートボイス</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>234</v>
+            <v>232</v>
           </cell>
           <cell r="B34" t="str">
-            <v>ファストキャスター</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>235</v>
+            <v>233</v>
           </cell>
           <cell r="B35" t="str">
-            <v>ヘブンリーラック</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>236</v>
+            <v>234</v>
           </cell>
           <cell r="B36" t="str">
-            <v>クイックアクト</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>241</v>
+            <v>235</v>
           </cell>
           <cell r="B37" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>301</v>
+            <v>236</v>
           </cell>
           <cell r="B38" t="str">
-            <v>アイスブレイド</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>302</v>
+            <v>241</v>
           </cell>
           <cell r="B39" t="str">
-            <v>カウンターオーラ</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>303</v>
+            <v>301</v>
           </cell>
           <cell r="B40" t="str">
-            <v>シールドスペル</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>304</v>
+            <v>302</v>
           </cell>
           <cell r="B41" t="str">
-            <v>エスコートソール</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>305</v>
+            <v>303</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ディープフリーズ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>311</v>
+            <v>304</v>
           </cell>
           <cell r="B43" t="str">
-            <v>フリジットシェル</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>312</v>
+            <v>305</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>321</v>
+            <v>311</v>
           </cell>
           <cell r="B45" t="str">
-            <v>バブルブロウ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>331</v>
+            <v>312</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ガーディアンソウル</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>332</v>
+            <v>321</v>
           </cell>
           <cell r="B47" t="str">
-            <v>アーマーコード</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>333</v>
+            <v>331</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ガードシフト</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>334</v>
+            <v>332</v>
           </cell>
           <cell r="B49" t="str">
-            <v>ノーリミット</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>335</v>
+            <v>333</v>
           </cell>
           <cell r="B50" t="str">
-            <v>カウンターヒール</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>336</v>
+            <v>334</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ペイシャンス</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>341</v>
+            <v>335</v>
           </cell>
           <cell r="B52" t="str">
-            <v>アイスエンチャント</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>401</v>
+            <v>336</v>
           </cell>
           <cell r="B53" t="str">
-            <v>セイントレーザー</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>402</v>
+            <v>341</v>
           </cell>
           <cell r="B54" t="str">
-            <v>ペネトレイト</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>403</v>
+            <v>401</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ヒーリング</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>404</v>
+            <v>402</v>
           </cell>
           <cell r="B56" t="str">
-            <v>リフレッシュ</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>405</v>
+            <v>403</v>
           </cell>
           <cell r="B57" t="str">
-            <v>べネディクション</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>411</v>
+            <v>404</v>
           </cell>
           <cell r="B58" t="str">
-            <v>エリクシール</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>412</v>
+            <v>405</v>
           </cell>
           <cell r="B59" t="str">
-            <v>エンジェルフェザー</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>421</v>
+            <v>411</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>431</v>
+            <v>412</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ディバインシールド</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>432</v>
+            <v>421</v>
           </cell>
           <cell r="B62" t="str">
-            <v>メディケーション</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>433</v>
+            <v>431</v>
           </cell>
           <cell r="B63" t="str">
-            <v>アフェクション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>434</v>
+            <v>432</v>
           </cell>
           <cell r="B64" t="str">
-            <v>リジェネレーション</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>435</v>
+            <v>433</v>
           </cell>
           <cell r="B65" t="str">
-            <v>アライアンス</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>436</v>
+            <v>434</v>
           </cell>
           <cell r="B66" t="str">
-            <v>スペクトルマイン</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>441</v>
+            <v>435</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>501</v>
+            <v>436</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ダークプリズン</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>502</v>
+            <v>441</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ユーサネイジア</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>503</v>
+            <v>501</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ドレインヒール</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>504</v>
+            <v>502</v>
           </cell>
           <cell r="B71" t="str">
-            <v>デリートマジック</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>505</v>
+            <v>503</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>511</v>
+            <v>504</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ディストラクション</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>512</v>
+            <v>505</v>
           </cell>
           <cell r="B74" t="str">
-            <v>カオスペイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>521</v>
+            <v>511</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ダークネス</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>531</v>
+            <v>512</v>
           </cell>
           <cell r="B76" t="str">
-            <v>イーグルアイ</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>532</v>
+            <v>521</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>533</v>
+            <v>531</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ネガティブドレイン</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>534</v>
+            <v>532</v>
           </cell>
           <cell r="B79" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>535</v>
+            <v>533</v>
           </cell>
           <cell r="B80" t="str">
-            <v>クリープアウト</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>536</v>
+            <v>534</v>
           </cell>
           <cell r="B81" t="str">
-            <v>カタストロフ</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>541</v>
+            <v>535</v>
           </cell>
           <cell r="B82" t="str">
-            <v>ダークエンチャント</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>1000</v>
+            <v>536</v>
           </cell>
           <cell r="B83" t="str">
-            <v>愚者</v>
+            <v>カタストロフ</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>1001</v>
+            <v>541</v>
           </cell>
           <cell r="B84" t="str">
-            <v>魔術師</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1002</v>
+            <v>1000</v>
           </cell>
           <cell r="B85" t="str">
-            <v>女帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1003</v>
+            <v>1001</v>
           </cell>
           <cell r="B86" t="str">
-            <v>女教皇</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1004</v>
+            <v>1002</v>
           </cell>
           <cell r="B87" t="str">
-            <v>皇帝</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1005</v>
+            <v>1003</v>
           </cell>
           <cell r="B88" t="str">
-            <v>法王</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1006</v>
+            <v>1004</v>
           </cell>
           <cell r="B89" t="str">
-            <v>恋愛</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1007</v>
+            <v>1005</v>
           </cell>
           <cell r="B90" t="str">
-            <v>戦車</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1008</v>
+            <v>1006</v>
           </cell>
           <cell r="B91" t="str">
-            <v>正義</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1009</v>
+            <v>1007</v>
           </cell>
           <cell r="B92" t="str">
-            <v>隠者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1010</v>
+            <v>1008</v>
           </cell>
           <cell r="B93" t="str">
-            <v>運命</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1011</v>
+            <v>1009</v>
           </cell>
           <cell r="B94" t="str">
-            <v>剛毅</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1012</v>
+            <v>1010</v>
           </cell>
           <cell r="B95" t="str">
-            <v>刑死者</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1013</v>
+            <v>1011</v>
           </cell>
           <cell r="B96" t="str">
-            <v>死神</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1014</v>
+            <v>1012</v>
           </cell>
           <cell r="B97" t="str">
-            <v>節制</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1015</v>
+            <v>1013</v>
           </cell>
           <cell r="B98" t="str">
-            <v>悪魔</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1016</v>
+            <v>1014</v>
           </cell>
           <cell r="B99" t="str">
-            <v>塔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1017</v>
+            <v>1015</v>
           </cell>
           <cell r="B100" t="str">
-            <v>星</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1018</v>
+            <v>1016</v>
           </cell>
           <cell r="B101" t="str">
-            <v>月</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1019</v>
+            <v>1017</v>
           </cell>
           <cell r="B102" t="str">
-            <v>太陽</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1020</v>
+            <v>1018</v>
           </cell>
           <cell r="B103" t="str">
-            <v>審判</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1022</v>
+            <v>1019</v>
           </cell>
           <cell r="B104" t="str">
-            <v>杖</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1023</v>
+            <v>1020</v>
           </cell>
           <cell r="B105" t="str">
-            <v>器</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1024</v>
+            <v>1022</v>
           </cell>
           <cell r="B106" t="str">
-            <v>剣</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1025</v>
+            <v>1023</v>
           </cell>
           <cell r="B107" t="str">
-            <v>貨幣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>2001</v>
+            <v>1024</v>
           </cell>
           <cell r="B108" t="str">
-            <v>元素術・炎</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>2002</v>
+            <v>1025</v>
           </cell>
           <cell r="B109" t="str">
-            <v>元素術・雷</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>2003</v>
+            <v>2001</v>
           </cell>
           <cell r="B110" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>2004</v>
+            <v>2002</v>
           </cell>
           <cell r="B111" t="str">
-            <v>光魔術</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2005</v>
+            <v>2003</v>
           </cell>
           <cell r="B112" t="str">
-            <v>超次元術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
+            <v>2004</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>2005</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
             <v>2009</v>
           </cell>
-          <cell r="B113" t="str">
+          <cell r="B115" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -2970,7 +2986,7 @@
   <sheetPr/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,10 +67,55 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,6 +126,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -97,85 +180,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,8 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +209,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,13 +219,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,49 +285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,19 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +345,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,61 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,17 +413,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,17 +437,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,11 +472,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,15 +510,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,16 +518,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,7 +807,7 @@
             <v>41</v>
           </cell>
           <cell r="B8" t="str">
-            <v>アンデッド状態</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="9">
@@ -1292,377 +1292,385 @@
         </row>
         <row r="69">
           <cell r="A69">
-            <v>441</v>
+            <v>437</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>501</v>
+            <v>441</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>502</v>
+            <v>501</v>
           </cell>
           <cell r="B71" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>503</v>
+            <v>502</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="B73" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>505</v>
+            <v>504</v>
           </cell>
           <cell r="B74" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>511</v>
+            <v>505</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ディストラクション</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>512</v>
+            <v>511</v>
           </cell>
           <cell r="B76" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>521</v>
+            <v>512</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ダークネス</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>531</v>
+            <v>521</v>
           </cell>
           <cell r="B78" t="str">
-            <v>イーグルアイ</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>532</v>
+            <v>531</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>533</v>
+            <v>532</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>534</v>
+            <v>533</v>
           </cell>
           <cell r="B81" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>535</v>
+            <v>534</v>
           </cell>
           <cell r="B82" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>536</v>
+            <v>535</v>
           </cell>
           <cell r="B83" t="str">
-            <v>カタストロフ</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>541</v>
+            <v>536</v>
           </cell>
           <cell r="B84" t="str">
-            <v>ダークエンチャント</v>
+            <v>カタストロフ</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1000</v>
+            <v>541</v>
           </cell>
           <cell r="B85" t="str">
-            <v>愚者</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B86" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B87" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B88" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B89" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B90" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B91" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B92" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B93" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B94" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B95" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B96" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B97" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B98" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B99" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B100" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B101" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B102" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B103" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B104" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B105" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B106" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B107" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B108" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1025</v>
+            <v>1024</v>
           </cell>
           <cell r="B109" t="str">
-            <v>貨幣</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>2001</v>
+            <v>1025</v>
           </cell>
           <cell r="B110" t="str">
-            <v>元素術・炎</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="B111" t="str">
-            <v>元素術・雷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="B112" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="B113" t="str">
-            <v>光魔術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2005</v>
+            <v>2004</v>
           </cell>
           <cell r="B114" t="str">
-            <v>超次元術</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
+            <v>2005</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
             <v>2009</v>
           </cell>
-          <cell r="B115" t="str">
+          <cell r="B116" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -2986,7 +2994,7 @@
   <sheetPr/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,60 +74,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,22 +91,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,15 +113,67 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,9 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +199,14 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,31 +231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,37 +243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +273,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,49 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,15 +413,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -433,15 +424,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,17 +454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,7 +482,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,10 +1939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2980,6 +2980,406 @@
         <v>1</v>
       </c>
       <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C52" s="1">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C54" s="1">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C55">
+        <v>201</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C58" s="1">
+        <v>202</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C61" s="1">
+        <v>203</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C62" s="1">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C64" s="1">
+        <v>204</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C68">
+        <v>205</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C69" s="1">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C71" s="1">
+        <v>206</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2992,10 +3392,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4392,6 +4792,108 @@
         <v>100</v>
       </c>
     </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>2100</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>2200</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>2300</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>2400</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>2500</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>2600</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,6 +75,13 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -82,11 +89,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,8 +118,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,22 +157,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,21 +188,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -173,38 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,55 +249,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,43 +285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +315,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,13 +375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,67 +413,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +440,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,6 +480,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,10 +1939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1971,48 +1971,44 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2021,13 +2017,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2036,310 +2032,306 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>30</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>40</v>
       </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>50</v>
       </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
+      <c r="F17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2348,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -2368,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2388,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="1">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -2408,15 +2400,15 @@
         <v>1</v>
       </c>
       <c r="B23" s="1">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" s="1">
@@ -2428,15 +2420,15 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
@@ -2448,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2468,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C26" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -2488,10 +2480,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C27" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2508,15 +2500,15 @@
         <v>1</v>
       </c>
       <c r="B28" s="1">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C28" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" s="1">
@@ -2528,15 +2520,15 @@
         <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C29" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
@@ -2548,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C30" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -2568,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C31" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2588,10 +2580,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C32" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -2608,44 +2600,44 @@
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>1014</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1015</v>
-      </c>
-      <c r="C34" s="1">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
         <v>100</v>
@@ -2665,33 +2657,33 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>100</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C37" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -2705,207 +2697,207 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C38">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1">
         <v>200</v>
       </c>
       <c r="C39" s="1">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>300</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1">
-        <v>200</v>
-      </c>
-      <c r="C41" s="1">
-        <v>102</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>300</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1">
         <v>300</v>
       </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>300</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>400</v>
+      </c>
+      <c r="C43" s="1">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1">
-        <v>300</v>
-      </c>
-      <c r="C44" s="1">
-        <v>103</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>400</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1">
         <v>400</v>
       </c>
       <c r="C45" s="1">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>400</v>
-      </c>
-      <c r="C46">
-        <v>14</v>
-      </c>
-      <c r="D46">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>500</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1">
-        <v>3</v>
+      <c r="A47">
+        <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>400</v>
-      </c>
-      <c r="C47" s="1">
-        <v>104</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
+        <v>500</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1">
         <v>500</v>
@@ -2916,7 +2908,7 @@
       <c r="D48" s="1">
         <v>3</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" s="1">
@@ -2925,33 +2917,33 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
         <v>500</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -2965,27 +2957,27 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="C51">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1">
         <v>2100</v>
@@ -3005,33 +2997,33 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1">
         <v>2100</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="C54" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -3045,207 +3037,207 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="C55">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1">
         <v>2200</v>
       </c>
       <c r="C56" s="1">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57">
-        <v>2</v>
+      <c r="A57" s="1">
+        <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>2200</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="D57">
+        <v>2300</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>3</v>
+      <c r="A58">
+        <v>2</v>
       </c>
       <c r="B58" s="1">
-        <v>2200</v>
-      </c>
-      <c r="C58" s="1">
-        <v>202</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
+        <v>2300</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1">
         <v>2300</v>
       </c>
       <c r="C59" s="1">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="D59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60">
-        <v>2</v>
+      <c r="A60" s="1">
+        <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>2300</v>
-      </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60">
+        <v>2400</v>
+      </c>
+      <c r="C60" s="1">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>3</v>
+      <c r="A61">
+        <v>2</v>
       </c>
       <c r="B61" s="1">
-        <v>2300</v>
-      </c>
-      <c r="C61" s="1">
-        <v>203</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
+        <v>2400</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62" s="1">
         <v>2400</v>
       </c>
       <c r="C62" s="1">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63">
-        <v>2</v>
+      <c r="A63" s="1">
+        <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C63">
-        <v>14</v>
-      </c>
-      <c r="D63">
+        <v>2500</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
         <v>3</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>3</v>
+      <c r="A64">
+        <v>2</v>
       </c>
       <c r="B64" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C64" s="1">
-        <v>204</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
+        <v>2500</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1">
         <v>2500</v>
@@ -3256,7 +3248,7 @@
       <c r="D65" s="1">
         <v>3</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" s="1">
@@ -3265,33 +3257,33 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1">
         <v>2500</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -3305,81 +3297,41 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="C68">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1">
         <v>2600</v>
       </c>
       <c r="C69" s="1">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="D69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2600</v>
-      </c>
-      <c r="C70">
-        <v>14</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>3</v>
-      </c>
-      <c r="B71" s="1">
-        <v>2600</v>
-      </c>
-      <c r="C71" s="1">
-        <v>206</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,29 +63,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,22 +81,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -134,7 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,34 +126,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,8 +141,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,8 +180,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,19 +219,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,25 +261,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,31 +303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,49 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,6 +339,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,19 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +410,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -431,41 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -480,36 +510,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,7 +1941,7 @@
   <sheetPr/>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3344,10 +3344,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4766,13 +4766,13 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -4800,13 +4800,13 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4834,16 +4834,152 @@
         <v>1</v>
       </c>
       <c r="B82">
+        <v>2300</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>2400</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>2400</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>2400</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>2500</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>2500</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
         <v>2600</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
         <v>50</v>
       </c>
-      <c r="E82">
-        <v>100</v>
+      <c r="E88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>2600</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>2600</v>
+      </c>
+      <c r="C90">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -67,13 +67,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -82,14 +75,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,77 +138,6 @@
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,10 +156,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,7 +219,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,55 +321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,31 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,25 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +410,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,30 +497,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -466,50 +510,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,16 +518,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,7 +1415,7 @@
             <v>536</v>
           </cell>
           <cell r="B84" t="str">
-            <v>カタストロフ</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="85">
@@ -1428,249 +1428,257 @@
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1000</v>
+            <v>601</v>
           </cell>
           <cell r="B86" t="str">
-            <v>愚者</v>
+            <v>エンドオブライフ</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B87" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B88" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B89" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B90" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B91" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B92" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B93" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B94" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B95" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B96" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B97" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B98" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B99" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B100" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B101" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B102" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B103" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B104" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B105" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B106" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B107" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B108" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B109" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1025</v>
+            <v>1024</v>
           </cell>
           <cell r="B110" t="str">
-            <v>貨幣</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>2001</v>
+            <v>1025</v>
           </cell>
           <cell r="B111" t="str">
-            <v>元素術・炎</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="B112" t="str">
-            <v>元素術・雷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="B113" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="B114" t="str">
-            <v>光魔術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>2005</v>
+            <v>2004</v>
           </cell>
           <cell r="B115" t="str">
-            <v>超次元術</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
+            <v>2005</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
             <v>2009</v>
           </cell>
-          <cell r="B116" t="str">
+          <cell r="B117" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -1941,8 +1949,8 @@
   <sheetPr/>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A50" sqref="$A50:$XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3346,7 +3354,7 @@
   <sheetPr/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,6 +66,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -73,17 +111,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,17 +143,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,23 +164,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,33 +179,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,26 +195,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,7 +219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +249,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,49 +303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,49 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,11 +415,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,15 +427,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,30 +446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,6 +457,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +486,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1263,7 @@
             <v>433</v>
           </cell>
           <cell r="B65" t="str">
-            <v>アフェクション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="66">
@@ -1947,10 +1947,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD52"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2951,7 +2951,7 @@
         <v>2100</v>
       </c>
       <c r="C50" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -2971,7 +2971,7 @@
         <v>2100</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2991,7 +2991,7 @@
         <v>2100</v>
       </c>
       <c r="C52" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -3031,7 +3031,7 @@
         <v>2200</v>
       </c>
       <c r="C54" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -3064,282 +3064,342 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="1">
         <v>2200</v>
       </c>
-      <c r="C56" s="1">
-        <v>202</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C57" s="1">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D57" s="1">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58">
-        <v>2</v>
+      <c r="A58" s="1">
+        <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>2300</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>7</v>
       </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>3</v>
+      <c r="A59">
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <v>2300</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C61" s="1">
         <v>203</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C60" s="1">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C61">
-        <v>14</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
         <v>2400</v>
       </c>
       <c r="C62" s="1">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>1</v>
+      <c r="A63">
+        <v>2</v>
       </c>
       <c r="B63" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C63" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C63">
         <v>5</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64">
-        <v>2</v>
+      <c r="A64" s="1">
+        <v>3</v>
       </c>
       <c r="B64" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64">
+        <v>2400</v>
+      </c>
+      <c r="C64" s="1">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1">
         <v>3</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="D65" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66">
-        <v>4</v>
+      <c r="A66" s="1">
+        <v>1</v>
       </c>
       <c r="B66" s="1">
         <v>2500</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C69">
         <v>205</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1">
         <v>2600</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C70" s="1">
         <v>14</v>
       </c>
-      <c r="D67" s="1">
-        <v>3</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1">
         <v>2600</v>
       </c>
-      <c r="C68">
+      <c r="C71">
         <v>14</v>
       </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>3</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
         <v>2600</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C72" s="1">
         <v>206</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3354,8 +3414,8 @@
   <sheetPr/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4760,10 +4820,10 @@
         <v>2100</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D77">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -4794,10 +4854,10 @@
         <v>2200</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -4828,10 +4888,10 @@
         <v>2300</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -4862,10 +4922,10 @@
         <v>2400</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -4913,10 +4973,10 @@
         <v>2500</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D86">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -4947,10 +5007,10 @@
         <v>2600</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D88">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E88">
         <v>100</v>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,63 +67,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,16 +81,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,23 +96,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,8 +126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -209,6 +156,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,19 +219,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,31 +273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,25 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,49 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,16 +417,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,32 +459,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,16 +487,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1023,7 @@
             <v>233</v>
           </cell>
           <cell r="B35" t="str">
-            <v>スウィートボイス</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="36">
@@ -1431,7 +1431,7 @@
             <v>601</v>
           </cell>
           <cell r="B86" t="str">
-            <v>エンドオブライフ</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="87">
@@ -3414,7 +3414,7 @@
   <sheetPr/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742CE8E-3AA1-4CA7-AA56-F8111768D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,18 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,14 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,345 +77,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -412,327 +100,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Skills"/>
@@ -1941,89 +1340,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>401</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>104</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2043,47 +1434,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2103,47 +1494,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2156,54 +1547,54 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>40</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2216,14 +1607,14 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2236,34 +1627,34 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>50</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2276,14 +1667,14 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2303,327 +1694,327 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>1001</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>1002</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>1003</v>
       </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
         <v>1004</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
         <v>1005</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
         <v>1006</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
         <v>1007</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>1008</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
         <v>1009</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
         <v>1010</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
         <v>1011</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
         <v>1012</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>12</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
         <v>1013</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>13</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
         <v>1014</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>14</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>1015</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1">
-        <v>100</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
         <v>13</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>3</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2636,34 +2027,34 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1">
-        <v>100</v>
-      </c>
-      <c r="C35" s="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
         <v>13</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>3</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2676,34 +2067,34 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
         <v>200</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2723,47 +2114,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
         <v>200</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>102</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
         <v>300</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>7</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2776,54 +2167,54 @@
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>3</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
         <v>300</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>103</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
         <v>400</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>14</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2836,58 +2227,58 @@
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
         <v>400</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>104</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>500</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>5</v>
       </c>
-      <c r="D46" s="1">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>500</v>
       </c>
       <c r="C47">
@@ -2903,31 +2294,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
         <v>500</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
@@ -2943,31 +2334,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
         <v>2100</v>
       </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>2100</v>
       </c>
       <c r="C51">
@@ -2976,38 +2367,38 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>3</v>
-      </c>
-      <c r="B52" s="1">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
         <v>2100</v>
       </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>2100</v>
       </c>
       <c r="C53">
@@ -3016,38 +2407,38 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
         <v>2200</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>10</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>2200</v>
       </c>
       <c r="C55">
@@ -3063,11 +2454,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>2200</v>
       </c>
       <c r="C56">
@@ -3083,51 +2474,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>2200</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>202</v>
       </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
         <v>2300</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>7</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>3</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>2300</v>
       </c>
       <c r="C59">
@@ -3136,18 +2527,18 @@
       <c r="D59">
         <v>3</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>2300</v>
       </c>
       <c r="C60">
@@ -3156,58 +2547,58 @@
       <c r="D60">
         <v>3</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>4</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>2300</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>203</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
         <v>2400</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
         <v>3</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>2400</v>
       </c>
       <c r="C63">
@@ -3216,78 +2607,78 @@
       <c r="D63">
         <v>3</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>3</v>
-      </c>
-      <c r="B64" s="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
         <v>2400</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>14</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>4</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>2400</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>204</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
         <v>2500</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>4</v>
       </c>
-      <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>2500</v>
       </c>
       <c r="C67">
@@ -3303,31 +2694,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>3</v>
-      </c>
-      <c r="B68" s="1">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
         <v>2500</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>4</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>3</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>2500</v>
       </c>
       <c r="C69">
@@ -3343,31 +2734,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>1</v>
-      </c>
-      <c r="B70" s="1">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
         <v>2600</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>14</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>2600</v>
       </c>
       <c r="C71">
@@ -3376,52 +2767,52 @@
       <c r="D71">
         <v>3</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>3</v>
-      </c>
-      <c r="B72" s="1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
         <v>2600</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>206</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3437,7 +2828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3458,7 +2849,7 @@
         <v>アフターバーナー</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3475,7 +2866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3492,7 +2883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3513,7 +2904,7 @@
         <v>ヘブンリーラック</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3530,7 +2921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3547,7 +2938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3568,7 +2959,7 @@
         <v>ガーディアンソウル</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3585,7 +2976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3602,7 +2993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3623,7 +3014,7 @@
         <v>ディバインシールド</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3640,7 +3031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3657,7 +3048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3678,7 +3069,7 @@
         <v>ネガティブドレイン</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3695,7 +3086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3712,7 +3103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3733,7 +3124,7 @@
         <v>エスコートソール</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3750,7 +3141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3767,7 +3158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3788,7 +3179,7 @@
         <v>シャープコード</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3805,7 +3196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3822,7 +3213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3843,7 +3234,7 @@
         <v>メルトバースト</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3860,7 +3251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3877,7 +3268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3898,7 +3289,7 @@
         <v>ホーリーグレイス</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3915,7 +3306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3932,7 +3323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3953,7 +3344,7 @@
         <v>ドレインヒール</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3970,7 +3361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3987,7 +3378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4008,7 +3399,7 @@
         <v>バブルブロウ</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4025,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4042,7 +3433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4063,7 +3454,7 @@
         <v>ディプラヴィティ</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4080,7 +3471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4097,7 +3488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4118,7 +3509,7 @@
         <v>トラストチェイン</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4135,7 +3526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4152,7 +3543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4173,7 +3564,7 @@
         <v>ウルフソウル</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4190,7 +3581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4207,7 +3598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4228,7 +3619,7 @@
         <v>スパークフォグ</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -4245,7 +3636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" ht="12" customHeight="1" spans="1:5">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -4262,7 +3653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4283,7 +3674,7 @@
         <v>べネディクション</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -4300,7 +3691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -4317,7 +3708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -4338,7 +3729,7 @@
         <v>デリートマジック</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4355,7 +3746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -4372,7 +3763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -4393,7 +3784,7 @@
         <v>ガーディアンソウル</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4410,7 +3801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4427,7 +3818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -4448,7 +3839,7 @@
         <v>ヒートスタンプ</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -4465,7 +3856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4482,7 +3873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4503,7 +3894,7 @@
         <v>ショックインパルス</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -4520,7 +3911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -4537,7 +3928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -4558,7 +3949,7 @@
         <v>シールドスペル</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -4575,7 +3966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -4592,7 +3983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4613,7 +4004,7 @@
         <v>ダークネス</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4630,7 +4021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4647,7 +4038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -4668,7 +4059,7 @@
         <v>リフレッシュ</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -4685,7 +4076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -4702,7 +4093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -4723,7 +4114,7 @@
         <v>ディバインシールド</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4740,7 +4131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -4757,7 +4148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4778,7 +4169,7 @@
         <v>ソードアダプト</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -4795,7 +4186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4812,7 +4203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4829,7 +4220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4846,15 +4237,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C79">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -4863,7 +4254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4871,7 +4262,7 @@
         <v>2200</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -4880,15 +4271,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C81">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -4897,15 +4288,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -4914,12 +4305,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C83">
         <v>22</v>
@@ -4931,12 +4322,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -4948,29 +4339,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85">
+        <v>2300</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
         <v>2400</v>
-      </c>
-      <c r="C85">
-        <v>21</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>2500</v>
       </c>
       <c r="C86">
         <v>22</v>
@@ -4982,12 +4373,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
       <c r="B87">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -4999,32 +4390,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
       <c r="B88">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="C88">
+        <v>21</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>2500</v>
+      </c>
+      <c r="C89">
         <v>22</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89">
-        <v>2600</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -5033,25 +4424,93 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90">
+        <v>2500</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>2500</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
         <v>2600</v>
       </c>
-      <c r="C90">
+      <c r="C92">
+        <v>22</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>2600</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>2600</v>
+      </c>
+      <c r="C94">
         <v>21</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742CE8E-3AA1-4CA7-AA56-F8111768D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -19,18 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -67,8 +50,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,22 +66,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,9 +412,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -114,24 +668,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Skills"/>
@@ -1340,21 +1938,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1394,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1414,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1434,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1454,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1474,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1494,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1514,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1534,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1554,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1574,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1594,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1614,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1634,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1654,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1674,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1694,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1714,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1734,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1754,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1774,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1794,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1814,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1834,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1854,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1874,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1894,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1914,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1934,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1954,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1974,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1994,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2014,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2034,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2054,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2074,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2094,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2114,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2134,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2154,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2174,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2194,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2214,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2234,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2254,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2274,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2294,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2314,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2334,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2354,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2374,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2394,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2414,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2434,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2454,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2474,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2494,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2514,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2534,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2554,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2574,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2594,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2614,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2634,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2654,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2674,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2694,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2714,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2734,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2754,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2774,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2795,23 +3393,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2828,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2849,7 +3448,7 @@
         <v>アフターバーナー</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2866,7 +3465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2883,7 +3482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2904,7 +3503,7 @@
         <v>ヘブンリーラック</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2921,7 +3520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2938,7 +3537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2959,7 +3558,7 @@
         <v>ガーディアンソウル</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2976,7 +3575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2993,7 +3592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3014,7 +3613,7 @@
         <v>ディバインシールド</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3031,7 +3630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3048,7 +3647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3069,7 +3668,7 @@
         <v>ネガティブドレイン</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3086,7 +3685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3103,7 +3702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3124,7 +3723,7 @@
         <v>エスコートソール</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3141,7 +3740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3158,7 +3757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3179,7 +3778,7 @@
         <v>シャープコード</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3196,7 +3795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3213,7 +3812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3234,7 +3833,7 @@
         <v>メルトバースト</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3251,7 +3850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3268,7 +3867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3289,7 +3888,7 @@
         <v>ホーリーグレイス</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3306,7 +3905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3323,7 +3922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3344,7 +3943,7 @@
         <v>ドレインヒール</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3361,7 +3960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3378,7 +3977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3399,7 +3998,7 @@
         <v>バブルブロウ</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3416,7 +4015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3433,7 +4032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3454,7 +4053,7 @@
         <v>ディプラヴィティ</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3471,7 +4070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3488,7 +4087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3509,7 +4108,7 @@
         <v>トラストチェイン</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3526,7 +4125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3543,7 +4142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3564,7 +4163,7 @@
         <v>ウルフソウル</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3581,7 +4180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3598,7 +4197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3619,7 +4218,7 @@
         <v>スパークフォグ</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3636,7 +4235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="12" customHeight="1" spans="1:5">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3653,7 +4252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3674,7 +4273,7 @@
         <v>べネディクション</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3691,7 +4290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3708,7 +4307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3729,7 +4328,7 @@
         <v>デリートマジック</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3746,7 +4345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3763,7 +4362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3784,7 +4383,7 @@
         <v>ガーディアンソウル</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3801,7 +4400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3818,7 +4417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3839,7 +4438,7 @@
         <v>ヒートスタンプ</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3856,7 +4455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3873,7 +4472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3894,7 +4493,7 @@
         <v>ショックインパルス</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3911,7 +4510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3928,7 +4527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3949,7 +4548,7 @@
         <v>シールドスペル</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3966,7 +4565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3983,7 +4582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4004,7 +4603,7 @@
         <v>ダークネス</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4021,7 +4620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4038,7 +4637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>1</v>
       </c>
@@ -4059,7 +4658,7 @@
         <v>リフレッシュ</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>1</v>
       </c>
@@ -4076,7 +4675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>1</v>
       </c>
@@ -4093,7 +4692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>1</v>
       </c>
@@ -4114,7 +4713,7 @@
         <v>ディバインシールド</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4131,7 +4730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>1</v>
       </c>
@@ -4148,7 +4747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4169,7 +4768,7 @@
         <v>ソードアダプト</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>1</v>
       </c>
@@ -4186,7 +4785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4203,7 +4802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4220,7 +4819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4237,7 +4836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4254,7 +4853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4271,7 +4870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4288,7 +4887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4305,7 +4904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4322,7 +4921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4339,7 +4938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4356,7 +4955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4373,7 +4972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4390,7 +4989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4407,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4424,7 +5023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4441,7 +5040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4458,7 +5057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4475,7 +5074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4492,7 +5091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4510,7 +5109,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,8 +66,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,9 +89,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,31 +104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -135,8 +120,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,7 +144,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -182,22 +198,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +219,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,109 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,49 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,21 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,22 +437,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +472,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,9 +502,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,7 +1946,7 @@
   <sheetPr/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -3404,8 +3404,8 @@
   <sheetPr/>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -3713,14 +3713,14 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D17,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>メルトバースト</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3823,14 +3823,14 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>エスコートソール</v>
       </c>
     </row>
     <row r="24" spans="1:5">

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -53,14 +53,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -74,9 +82,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,8 +103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,9 +113,70 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,84 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,85 +219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +267,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,19 +303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +333,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,22 +417,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,9 +448,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,11 +504,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,16 +518,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3404,8 +3404,8 @@
   <sheetPr/>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4813,7 +4813,7 @@
         <v>22</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -4864,7 +4864,7 @@
         <v>22</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -4915,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -5017,7 +5017,7 @@
         <v>22</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>100</v>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,24 +66,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,6 +89,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -103,9 +119,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,85 +203,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,19 +219,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,43 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,78 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,16 +417,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,6 +448,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,41 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,16 +518,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,7 +1946,7 @@
   <sheetPr/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -3404,7 +3404,7 @@
   <sheetPr/>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +63,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,98 +81,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +97,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,18 +173,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,7 +219,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,37 +267,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +339,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,31 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,31 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,30 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,36 +428,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -505,8 +455,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,7 +1946,7 @@
   <sheetPr/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Line</t>
   </si>
   <si>
+    <t>StageTurn</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -53,8 +56,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -67,7 +70,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,7 +122,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,107 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,37 +222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,43 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,19 +282,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,19 +336,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,43 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +427,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,58 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +521,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1944,15 +1947,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1971,8 +1974,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1991,8 +1997,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2011,8 +2020,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2031,8 +2043,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2051,8 +2066,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2071,8 +2089,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2091,8 +2112,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2111,8 +2135,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2131,8 +2158,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2151,8 +2181,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2171,8 +2204,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2191,8 +2227,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2211,8 +2250,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2231,8 +2273,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2251,8 +2296,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2271,8 +2319,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2291,8 +2342,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2311,8 +2365,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2331,8 +2388,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2351,8 +2411,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2371,8 +2434,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2391,8 +2457,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2411,8 +2480,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2431,8 +2503,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2451,8 +2526,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2471,8 +2549,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2491,8 +2572,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2511,8 +2595,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2531,8 +2618,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2551,8 +2641,11 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2571,8 +2664,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2591,8 +2687,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2611,8 +2710,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2631,8 +2733,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2651,8 +2756,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2671,8 +2779,11 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2691,8 +2802,11 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2711,8 +2825,11 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2720,41 +2837,47 @@
         <v>200</v>
       </c>
       <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+      <c r="C40">
         <v>102</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>300</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -2771,624 +2894,789 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>300</v>
       </c>
       <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>300</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>300</v>
+      </c>
+      <c r="C44">
         <v>103</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>400</v>
-      </c>
-      <c r="C43">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>400</v>
-      </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <v>400</v>
       </c>
       <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>400</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>400</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>400</v>
+      </c>
+      <c r="C48">
         <v>104</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>500</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>500</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48">
-        <v>500</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>500</v>
       </c>
       <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>500</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>500</v>
+      </c>
+      <c r="C52">
         <v>105</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>2100</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>2100</v>
-      </c>
-      <c r="C51">
-        <v>12</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52">
-        <v>2100</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53">
         <v>2100</v>
       </c>
       <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>2100</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>2100</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>2100</v>
+      </c>
+      <c r="C56">
         <v>201</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>2200</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>2200</v>
-      </c>
-      <c r="C55">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56">
-        <v>2200</v>
-      </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
       <c r="D56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57">
         <v>2200</v>
       </c>
       <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>2200</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>2200</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>2200</v>
+      </c>
+      <c r="C60">
         <v>202</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>2300</v>
-      </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59">
-        <v>2300</v>
-      </c>
-      <c r="C59">
-        <v>15</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>2300</v>
-      </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <v>2300</v>
       </c>
       <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>2300</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>2300</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>2300</v>
+      </c>
+      <c r="C64">
         <v>203</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>2400</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63">
-        <v>2400</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>3</v>
-      </c>
-      <c r="B64">
-        <v>2400</v>
-      </c>
-      <c r="C64">
-        <v>14</v>
-      </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B65">
         <v>2400</v>
       </c>
       <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>2400</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>2400</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>2400</v>
+      </c>
+      <c r="C68">
         <v>204</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>2500</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67">
-        <v>2500</v>
-      </c>
-      <c r="C67">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68">
-        <v>2500</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69">
         <v>2500</v>
       </c>
       <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>2500</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>2500</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>2500</v>
+      </c>
+      <c r="C72">
         <v>205</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
         <v>2600</v>
       </c>
-      <c r="C70">
+      <c r="C73">
         <v>14</v>
       </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
         <v>2600</v>
       </c>
-      <c r="C71">
+      <c r="C74">
         <v>14</v>
       </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72">
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
         <v>2600</v>
       </c>
-      <c r="C72">
+      <c r="C75">
         <v>206</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
         <v>1</v>
       </c>
     </row>
@@ -3418,13 +3706,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7660"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,7 +70,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,16 +85,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,9 +98,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,18 +183,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,63 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +222,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,85 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,19 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +330,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,32 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,9 +433,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,15 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,145 +521,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,570 +1116,682 @@
         </row>
         <row r="47">
           <cell r="A47">
-            <v>321</v>
+            <v>313</v>
           </cell>
           <cell r="B47" t="str">
-            <v>バブルブロウ</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>331</v>
+            <v>314</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ガーディアンソウル</v>
+            <v>カガミニトリコメル</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>332</v>
+            <v>321</v>
           </cell>
           <cell r="B49" t="str">
-            <v>アーマーコード</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>333</v>
+            <v>331</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ガードシフト</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>334</v>
+            <v>332</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ノーリミット</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>335</v>
+            <v>333</v>
           </cell>
           <cell r="B52" t="str">
-            <v>カウンターヒール</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>336</v>
+            <v>334</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ペイシャンス</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>341</v>
+            <v>335</v>
           </cell>
           <cell r="B54" t="str">
-            <v>アイスエンチャント</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>401</v>
+            <v>336</v>
           </cell>
           <cell r="B55" t="str">
-            <v>セイントレーザー</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>402</v>
+            <v>341</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ペネトレイト</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>403</v>
+            <v>401</v>
           </cell>
           <cell r="B57" t="str">
-            <v>ヒーリング</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>404</v>
+            <v>402</v>
           </cell>
           <cell r="B58" t="str">
-            <v>リフレッシュ</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>405</v>
+            <v>403</v>
           </cell>
           <cell r="B59" t="str">
-            <v>べネディクション</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>411</v>
+            <v>404</v>
           </cell>
           <cell r="B60" t="str">
-            <v>エリクシール</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>412</v>
+            <v>405</v>
           </cell>
           <cell r="B61" t="str">
-            <v>エンジェルフェザー</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>421</v>
+            <v>411</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>431</v>
+            <v>412</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ディバインシールド</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>432</v>
+            <v>421</v>
           </cell>
           <cell r="B64" t="str">
-            <v>メディケーション</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>433</v>
+            <v>431</v>
           </cell>
           <cell r="B65" t="str">
-            <v>エイミングスコープ</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>434</v>
+            <v>432</v>
           </cell>
           <cell r="B66" t="str">
-            <v>リジェネレーション</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>435</v>
+            <v>433</v>
           </cell>
           <cell r="B67" t="str">
-            <v>アライアンス</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>436</v>
+            <v>434</v>
           </cell>
           <cell r="B68" t="str">
-            <v>スペクトルマイン</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>437</v>
+            <v>435</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>441</v>
+            <v>436</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>501</v>
+            <v>437</v>
           </cell>
           <cell r="B71" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>502</v>
+            <v>441</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ユーサネイジア</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>503</v>
+            <v>501</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ドレインヒール</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>504</v>
+            <v>502</v>
           </cell>
           <cell r="B74" t="str">
-            <v>デリートマジック</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>505</v>
+            <v>503</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>511</v>
+            <v>504</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ディストラクション</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>512</v>
+            <v>505</v>
           </cell>
           <cell r="B77" t="str">
-            <v>カオスペイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>521</v>
+            <v>511</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ダークネス</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>531</v>
+            <v>512</v>
           </cell>
           <cell r="B79" t="str">
-            <v>イーグルアイ</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>532</v>
+            <v>521</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>533</v>
+            <v>531</v>
           </cell>
           <cell r="B81" t="str">
-            <v>ネガティブドレイン</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>534</v>
+            <v>532</v>
           </cell>
           <cell r="B82" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>535</v>
+            <v>533</v>
           </cell>
           <cell r="B83" t="str">
-            <v>クリープアウト</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>536</v>
+            <v>534</v>
           </cell>
           <cell r="B84" t="str">
-            <v>アンデッドペイン</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>541</v>
+            <v>535</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ダークエンチャント</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>601</v>
+            <v>536</v>
           </cell>
           <cell r="B86" t="str">
-            <v>エンドオブサイクル</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1000</v>
+            <v>541</v>
           </cell>
           <cell r="B87" t="str">
-            <v>愚者</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1001</v>
+            <v>601</v>
           </cell>
           <cell r="B88" t="str">
-            <v>魔術師</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1002</v>
+            <v>1000</v>
           </cell>
           <cell r="B89" t="str">
-            <v>女帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1003</v>
+            <v>1001</v>
           </cell>
           <cell r="B90" t="str">
-            <v>女教皇</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1004</v>
+            <v>1002</v>
           </cell>
           <cell r="B91" t="str">
-            <v>皇帝</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1005</v>
+            <v>1003</v>
           </cell>
           <cell r="B92" t="str">
-            <v>法王</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1006</v>
+            <v>1004</v>
           </cell>
           <cell r="B93" t="str">
-            <v>恋愛</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1007</v>
+            <v>1005</v>
           </cell>
           <cell r="B94" t="str">
-            <v>戦車</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1008</v>
+            <v>1006</v>
           </cell>
           <cell r="B95" t="str">
-            <v>正義</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1009</v>
+            <v>1007</v>
           </cell>
           <cell r="B96" t="str">
-            <v>隠者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1010</v>
+            <v>1008</v>
           </cell>
           <cell r="B97" t="str">
-            <v>運命</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1011</v>
+            <v>1009</v>
           </cell>
           <cell r="B98" t="str">
-            <v>剛毅</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1012</v>
+            <v>1010</v>
           </cell>
           <cell r="B99" t="str">
-            <v>刑死者</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1013</v>
+            <v>1011</v>
           </cell>
           <cell r="B100" t="str">
-            <v>死神</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1014</v>
+            <v>1012</v>
           </cell>
           <cell r="B101" t="str">
-            <v>節制</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1015</v>
+            <v>1013</v>
           </cell>
           <cell r="B102" t="str">
-            <v>悪魔</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1016</v>
+            <v>1014</v>
           </cell>
           <cell r="B103" t="str">
-            <v>塔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1017</v>
+            <v>1015</v>
           </cell>
           <cell r="B104" t="str">
-            <v>星</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1018</v>
+            <v>1016</v>
           </cell>
           <cell r="B105" t="str">
-            <v>月</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1019</v>
+            <v>1017</v>
           </cell>
           <cell r="B106" t="str">
-            <v>太陽</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1020</v>
+            <v>1018</v>
           </cell>
           <cell r="B107" t="str">
-            <v>審判</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1022</v>
+            <v>1019</v>
           </cell>
           <cell r="B108" t="str">
-            <v>杖</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1023</v>
+            <v>1020</v>
           </cell>
           <cell r="B109" t="str">
-            <v>器</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1024</v>
+            <v>1022</v>
           </cell>
           <cell r="B110" t="str">
-            <v>剣</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1025</v>
+            <v>1023</v>
           </cell>
           <cell r="B111" t="str">
-            <v>貨幣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>2001</v>
+            <v>1024</v>
           </cell>
           <cell r="B112" t="str">
-            <v>元素術・炎</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>2002</v>
+            <v>1025</v>
           </cell>
           <cell r="B113" t="str">
-            <v>元素術・雷</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2003</v>
+            <v>2001</v>
           </cell>
           <cell r="B114" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>2004</v>
+            <v>2002</v>
           </cell>
           <cell r="B115" t="str">
-            <v>光魔術</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>2005</v>
+            <v>2003</v>
           </cell>
           <cell r="B116" t="str">
-            <v>超次元術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
+            <v>2004</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>2005</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
             <v>2009</v>
           </cell>
-          <cell r="B117" t="str">
+          <cell r="B119" t="str">
             <v>はずす</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>4001</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>人体錬成+\d</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>4002</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>理性拡張+\d</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>4003</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>存在修復+\d</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>4004</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>救済執行+\d</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>4005</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>素子補充+\d</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>4101</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>最大Hp+\d</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>4102</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>最大Mp+\d</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>4103</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>ATK+\d</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>4104</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>DEF+\d</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>4105</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>SPD+\d</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>4201</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>4301</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>すべて死せる魂+\d</v>
           </cell>
         </row>
       </sheetData>
@@ -1947,10 +2059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3064,10 +3176,10 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -3087,10 +3199,10 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3110,10 +3222,10 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3133,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="C52">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3156,10 +3268,10 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3179,10 +3291,10 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3202,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3217,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3225,10 +3337,10 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="C56">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3248,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3271,10 +3383,10 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3294,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3309,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3317,10 +3429,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="C60">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3340,10 +3452,10 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3363,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3386,10 +3498,10 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3409,10 +3521,10 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C64">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3432,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3455,10 +3567,10 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3478,10 +3590,10 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3501,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C68">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3524,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -3547,10 +3659,10 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -3570,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -3593,10 +3705,10 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C72">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3616,10 +3728,10 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="C73">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -3639,10 +3751,10 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3662,21 +3774,389 @@
         <v>3</v>
       </c>
       <c r="B75">
+        <v>2400</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>2400</v>
+      </c>
+      <c r="C76">
+        <v>204</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>2500</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>2500</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>2500</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>2500</v>
+      </c>
+      <c r="C80">
+        <v>205</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
         <v>2600</v>
       </c>
-      <c r="C75">
+      <c r="C81">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>2600</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2600</v>
+      </c>
+      <c r="C83">
         <v>206</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>3300</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>3300</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>3300</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>3300</v>
+      </c>
+      <c r="C87">
+        <v>203</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>3400</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>3400</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>3400</v>
+      </c>
+      <c r="C90">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>3400</v>
+      </c>
+      <c r="C91">
+        <v>204</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7660"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,6 +70,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -77,7 +84,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,16 +166,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,52 +198,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -168,48 +205,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -222,7 +222,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,55 +318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,31 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,13 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,24 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -475,17 +457,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +484,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,16 +521,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,127 +539,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,657 +1140,697 @@
         </row>
         <row r="50">
           <cell r="A50">
-            <v>331</v>
+            <v>322</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ガーディアンソウル</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>332</v>
+            <v>331</v>
           </cell>
           <cell r="B51" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>333</v>
+            <v>332</v>
           </cell>
           <cell r="B52" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>334</v>
+            <v>333</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>335</v>
+            <v>334</v>
           </cell>
           <cell r="B54" t="str">
-            <v>カウンターヒール</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>336</v>
+            <v>335</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ペイシャンス</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>341</v>
+            <v>336</v>
           </cell>
           <cell r="B56" t="str">
-            <v>アイスエンチャント</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>401</v>
+            <v>341</v>
           </cell>
           <cell r="B57" t="str">
-            <v>セイントレーザー</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>402</v>
+            <v>401</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>403</v>
+            <v>402</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>404</v>
+            <v>403</v>
           </cell>
           <cell r="B60" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>405</v>
+            <v>404</v>
           </cell>
           <cell r="B61" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>411</v>
+            <v>405</v>
           </cell>
           <cell r="B62" t="str">
-            <v>エリクシール</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>412</v>
+            <v>411</v>
           </cell>
           <cell r="B63" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>421</v>
+            <v>412</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>431</v>
+            <v>413</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ディバインシールド</v>
+            <v>エンジェルハイロウ</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>432</v>
+            <v>414</v>
           </cell>
           <cell r="B66" t="str">
-            <v>メディケーション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>433</v>
+            <v>421</v>
           </cell>
           <cell r="B67" t="str">
-            <v>エイミングスコープ</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>434</v>
+            <v>422</v>
           </cell>
           <cell r="B68" t="str">
-            <v>リジェネレーション</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>435</v>
+            <v>431</v>
           </cell>
           <cell r="B69" t="str">
-            <v>アライアンス</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>436</v>
+            <v>432</v>
           </cell>
           <cell r="B70" t="str">
-            <v>スペクトルマイン</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>437</v>
+            <v>433</v>
           </cell>
           <cell r="B71" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>441</v>
+            <v>434</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>501</v>
+            <v>435</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ダークプリズン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>502</v>
+            <v>436</v>
           </cell>
           <cell r="B74" t="str">
-            <v>ユーサネイジア</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>503</v>
+            <v>437</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ドレインヒール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>504</v>
+            <v>438</v>
           </cell>
           <cell r="B76" t="str">
-            <v>デリートマジック</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>505</v>
+            <v>441</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>511</v>
+            <v>501</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ディストラクション</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>512</v>
+            <v>502</v>
           </cell>
           <cell r="B79" t="str">
-            <v>カオスペイン</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>521</v>
+            <v>503</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ダークネス</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>531</v>
+            <v>504</v>
           </cell>
           <cell r="B81" t="str">
-            <v>イーグルアイ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>532</v>
+            <v>505</v>
           </cell>
           <cell r="B82" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>533</v>
+            <v>511</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>534</v>
+            <v>512</v>
           </cell>
           <cell r="B84" t="str">
-            <v>スカルグラッジ</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>535</v>
+            <v>521</v>
           </cell>
           <cell r="B85" t="str">
-            <v>クリープアウト</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>536</v>
+            <v>531</v>
           </cell>
           <cell r="B86" t="str">
-            <v>アンデッドペイン</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>541</v>
+            <v>532</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ダークエンチャント</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>601</v>
+            <v>533</v>
           </cell>
           <cell r="B88" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1000</v>
+            <v>534</v>
           </cell>
           <cell r="B89" t="str">
-            <v>愚者</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1001</v>
+            <v>535</v>
           </cell>
           <cell r="B90" t="str">
-            <v>魔術師</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1002</v>
+            <v>536</v>
           </cell>
           <cell r="B91" t="str">
-            <v>女帝</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1003</v>
+            <v>541</v>
           </cell>
           <cell r="B92" t="str">
-            <v>女教皇</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1004</v>
+            <v>601</v>
           </cell>
           <cell r="B93" t="str">
-            <v>皇帝</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1005</v>
+            <v>1000</v>
           </cell>
           <cell r="B94" t="str">
-            <v>法王</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1006</v>
+            <v>1001</v>
           </cell>
           <cell r="B95" t="str">
-            <v>恋愛</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1007</v>
+            <v>1002</v>
           </cell>
           <cell r="B96" t="str">
-            <v>戦車</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1008</v>
+            <v>1003</v>
           </cell>
           <cell r="B97" t="str">
-            <v>正義</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1009</v>
+            <v>1004</v>
           </cell>
           <cell r="B98" t="str">
-            <v>隠者</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1010</v>
+            <v>1005</v>
           </cell>
           <cell r="B99" t="str">
-            <v>運命</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1011</v>
+            <v>1006</v>
           </cell>
           <cell r="B100" t="str">
-            <v>剛毅</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1012</v>
+            <v>1007</v>
           </cell>
           <cell r="B101" t="str">
-            <v>刑死者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1013</v>
+            <v>1008</v>
           </cell>
           <cell r="B102" t="str">
-            <v>死神</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1014</v>
+            <v>1009</v>
           </cell>
           <cell r="B103" t="str">
-            <v>節制</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1015</v>
+            <v>1010</v>
           </cell>
           <cell r="B104" t="str">
-            <v>悪魔</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1016</v>
+            <v>1011</v>
           </cell>
           <cell r="B105" t="str">
-            <v>塔</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1017</v>
+            <v>1012</v>
           </cell>
           <cell r="B106" t="str">
-            <v>星</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1018</v>
+            <v>1013</v>
           </cell>
           <cell r="B107" t="str">
-            <v>月</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1019</v>
+            <v>1014</v>
           </cell>
           <cell r="B108" t="str">
-            <v>太陽</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1020</v>
+            <v>1015</v>
           </cell>
           <cell r="B109" t="str">
-            <v>審判</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1022</v>
+            <v>1016</v>
           </cell>
           <cell r="B110" t="str">
-            <v>杖</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1023</v>
+            <v>1017</v>
           </cell>
           <cell r="B111" t="str">
-            <v>器</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>1024</v>
+            <v>1018</v>
           </cell>
           <cell r="B112" t="str">
-            <v>剣</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>1025</v>
+            <v>1019</v>
           </cell>
           <cell r="B113" t="str">
-            <v>貨幣</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>2001</v>
+            <v>1020</v>
           </cell>
           <cell r="B114" t="str">
-            <v>元素術・炎</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>2002</v>
+            <v>1022</v>
           </cell>
           <cell r="B115" t="str">
-            <v>元素術・雷</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>2003</v>
+            <v>1023</v>
           </cell>
           <cell r="B116" t="str">
-            <v>元素術・氷</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>2004</v>
+            <v>1024</v>
           </cell>
           <cell r="B117" t="str">
-            <v>光魔術</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>2005</v>
+            <v>1025</v>
           </cell>
           <cell r="B118" t="str">
-            <v>超次元術</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>2009</v>
+            <v>2001</v>
           </cell>
           <cell r="B119" t="str">
-            <v>はずす</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>4001</v>
+            <v>2002</v>
           </cell>
           <cell r="B120" t="str">
-            <v>人体錬成+\d</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>4002</v>
+            <v>2003</v>
           </cell>
           <cell r="B121" t="str">
-            <v>理性拡張+\d</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>4003</v>
+            <v>2004</v>
           </cell>
           <cell r="B122" t="str">
-            <v>存在修復+\d</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>4004</v>
+            <v>2005</v>
           </cell>
           <cell r="B123" t="str">
-            <v>救済執行+\d</v>
+            <v>超次元術</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>4005</v>
+            <v>2009</v>
           </cell>
           <cell r="B124" t="str">
-            <v>素子補充+\d</v>
+            <v>はずす</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>4101</v>
+            <v>4001</v>
           </cell>
           <cell r="B125" t="str">
-            <v>最大Hp+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>4102</v>
+            <v>4002</v>
           </cell>
           <cell r="B126" t="str">
-            <v>最大Mp+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>4103</v>
+            <v>4003</v>
           </cell>
           <cell r="B127" t="str">
-            <v>ATK+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>4104</v>
+            <v>4004</v>
           </cell>
           <cell r="B128" t="str">
-            <v>DEF+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>4105</v>
+            <v>4005</v>
           </cell>
           <cell r="B129" t="str">
-            <v>SPD+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>4201</v>
+            <v>4101</v>
           </cell>
           <cell r="B130" t="str">
-            <v>\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
+            <v>4102</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>最大Mp+\d</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>4103</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>ATK+\d</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>4104</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>DEF+\d</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>4105</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>SPD+\d</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>4201</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
             <v>4301</v>
           </cell>
-          <cell r="B131" t="str">
+          <cell r="B136" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2059,10 +2099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2391,13 +2431,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2414,16 +2454,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2437,22 +2477,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2460,19 +2500,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>1001</v>
+        <v>140</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2483,19 +2523,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>1002</v>
+        <v>140</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2509,19 +2549,19 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1003</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2529,22 +2569,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>1004</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2552,19 +2592,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>1005</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2578,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2601,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2624,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2647,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2670,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2693,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2716,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2739,10 +2779,10 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2762,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2785,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2808,19 +2848,19 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>1011</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2828,22 +2868,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>1012</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2851,36 +2891,36 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>1013</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>1014</v>
       </c>
       <c r="C36">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2900,19 +2940,19 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>1015</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2920,13 +2960,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2943,13 +2983,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2961,50 +3001,50 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C40">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3012,13 +3052,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -3035,13 +3075,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -3053,50 +3093,50 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C44">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3104,13 +3144,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3127,13 +3167,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -3145,50 +3185,50 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C48">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3196,13 +3236,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3219,13 +3259,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3237,50 +3277,50 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C52">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3288,13 +3328,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3311,13 +3351,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3329,50 +3369,50 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C56">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3380,13 +3420,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3403,13 +3443,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3421,50 +3461,50 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C60">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -3472,13 +3512,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3495,13 +3535,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3518,45 +3558,45 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C64">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3564,13 +3604,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3587,13 +3627,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3610,22 +3650,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C68">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -3633,22 +3673,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -3656,13 +3696,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -3679,13 +3719,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -3702,22 +3742,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C72">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3725,22 +3765,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3748,13 +3788,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3771,13 +3811,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3794,22 +3834,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C76">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3817,22 +3857,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3840,13 +3880,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -3863,13 +3903,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -3886,22 +3926,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C80">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3909,22 +3949,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3932,13 +3972,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -3955,22 +3995,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C83">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3978,13 +4018,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -4001,22 +4041,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -4024,13 +4064,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -4047,22 +4087,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C87">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -4070,22 +4110,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -4093,13 +4133,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -4116,13 +4156,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C90">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -4139,24 +4179,139 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>3300</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
         <v>4</v>
       </c>
-      <c r="B91">
+      <c r="B92">
+        <v>3300</v>
+      </c>
+      <c r="C92">
+        <v>213</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
         <v>3400</v>
       </c>
-      <c r="C91">
-        <v>204</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>3400</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>3400</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>3400</v>
+      </c>
+      <c r="C96">
+        <v>214</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
         <v>1</v>
       </c>
     </row>
@@ -4170,10 +4325,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4420,20 +4575,20 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>533</v>
+        <v>303</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>シールドスペル</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4441,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4458,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -4475,20 +4630,20 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>121</v>
+        <v>438</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D17,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>スペリオール</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4496,13 +4651,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -4513,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4530,20 +4685,20 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>203</v>
+        <v>533</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D20,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+        <v>ネガティブドレイン</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4551,13 +4706,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -4568,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -4585,20 +4740,20 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>メルトバースト</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4606,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4623,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4640,20 +4795,20 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>421</v>
+        <v>203</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D26,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>シャープコード</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4661,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4678,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -4695,20 +4850,20 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>503</v>
+        <v>304</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D29,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>エスコートソール</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4716,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4733,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -4750,20 +4905,20 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1001</v>
+        <v>400</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="E32">
         <v>100</v>
       </c>
       <c r="F32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D32,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>ホーリーグレイス</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4771,13 +4926,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1001</v>
+        <v>400</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -4788,13 +4943,13 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1001</v>
+        <v>400</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -4805,20 +4960,20 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1002</v>
+        <v>500</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E35">
         <v>100</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D35,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>ドレインヒール</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4826,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>1002</v>
+        <v>500</v>
       </c>
       <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
         <v>15</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -4843,13 +4998,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1002</v>
+        <v>500</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -4860,20 +5015,20 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1003</v>
+        <v>1300</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D38,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ディープフリーズ</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4881,13 +5036,13 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>1003</v>
+        <v>1300</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -4898,13 +5053,13 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>1003</v>
+        <v>1300</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -4915,20 +5070,20 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1004</v>
+        <v>1400</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>131</v>
+        <v>436</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D41,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>スペクトルマイン</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4936,13 +5091,13 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>1004</v>
+        <v>1400</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -4953,13 +5108,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1004</v>
+        <v>1400</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -4970,20 +5125,20 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D44,[1]TextData!A:A))</f>
-        <v>スパークフォグ</v>
+        <v>バブルブロウ</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4991,10 +5146,10 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5003,12 +5158,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" ht="12" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5025,20 +5180,20 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>405</v>
+        <v>505</v>
       </c>
       <c r="E47">
         <v>100</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D47,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ディプラヴィティ</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5046,10 +5201,10 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5063,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5080,20 +5235,20 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>504</v>
+        <v>205</v>
       </c>
       <c r="E50">
         <v>100</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D50,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
+        <v>トラストチェイン</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5101,10 +5256,10 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5118,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5135,20 +5290,20 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
       <c r="F53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D53,[1]TextData!A:A))</f>
-        <v>ガーディアンソウル</v>
+        <v>ウルフソウル</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5156,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5173,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5190,20 +5345,20 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="E56">
         <v>100</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D56,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>スパークフォグ</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5211,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -5223,12 +5378,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" ht="12" customHeight="1" spans="1:5">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -5245,20 +5400,20 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>204</v>
+        <v>405</v>
       </c>
       <c r="E59">
         <v>100</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D59,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>べネディクション</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5266,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -5283,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -5300,20 +5455,20 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>303</v>
+        <v>504</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
+        <v>デリートマジック</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5321,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -5338,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -5355,20 +5510,20 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>521</v>
+        <v>331</v>
       </c>
       <c r="E65">
         <v>100</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D65,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>ガーディアンソウル</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5376,10 +5531,10 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -5393,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -5410,20 +5565,20 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>404</v>
+        <v>103</v>
       </c>
       <c r="E68">
         <v>100</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D68,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>ヒートスタンプ</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5431,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C69">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5448,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -5465,20 +5620,20 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>431</v>
+        <v>204</v>
       </c>
       <c r="E71">
         <v>100</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D71,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>ショックインパルス</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5486,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5503,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -5520,20 +5675,20 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="E74">
         <v>100</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D74,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>シールドスペル</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5541,10 +5696,10 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5558,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5570,21 +5725,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77">
-        <v>2100</v>
+        <v>1012</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="E77">
         <v>100</v>
+      </c>
+      <c r="F77" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D77,[1]TextData!A:A))</f>
+        <v>ダークネス</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5592,13 +5751,13 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>2100</v>
+        <v>1012</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -5609,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>2100</v>
+        <v>1012</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -5621,21 +5780,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80">
-        <v>2200</v>
+        <v>1013</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="E80">
         <v>100</v>
+      </c>
+      <c r="F80" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D80,[1]TextData!A:A))</f>
+        <v>リフレッシュ</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5643,13 +5806,13 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>2200</v>
+        <v>1013</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -5660,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>2200</v>
+        <v>1013</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5672,21 +5835,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83">
-        <v>2300</v>
+        <v>1014</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="E83">
         <v>100</v>
+      </c>
+      <c r="F83" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D83,[1]TextData!A:A))</f>
+        <v>ディバインシールド</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5694,13 +5861,13 @@
         <v>1</v>
       </c>
       <c r="B84">
-        <v>2300</v>
+        <v>1014</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -5711,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>2300</v>
+        <v>1014</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5723,21 +5890,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86">
-        <v>2400</v>
+        <v>1015</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="E86">
         <v>100</v>
+      </c>
+      <c r="F86" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D86,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5745,13 +5916,13 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>2400</v>
+        <v>1015</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -5762,16 +5933,16 @@
         <v>1</v>
       </c>
       <c r="B88">
-        <v>2400</v>
+        <v>1015</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5779,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="C89">
         <v>22</v>
@@ -5796,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -5813,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="B91">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -5830,13 +6001,13 @@
         <v>1</v>
       </c>
       <c r="B92">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="C92">
         <v>22</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -5847,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -5864,15 +6035,321 @@
         <v>1</v>
       </c>
       <c r="B94">
+        <v>2200</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>2300</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>2300</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>2300</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>2400</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>2400</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>2400</v>
+      </c>
+      <c r="C100">
+        <v>21</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>2500</v>
+      </c>
+      <c r="C101">
+        <v>22</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>2500</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>2500</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
         <v>2600</v>
       </c>
-      <c r="C94">
+      <c r="C104">
+        <v>22</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>2600</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>2600</v>
+      </c>
+      <c r="C106">
         <v>21</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>3300</v>
+      </c>
+      <c r="C107">
+        <v>22</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>3300</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>3300</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>3400</v>
+      </c>
+      <c r="C110">
+        <v>22</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>3400</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>3400</v>
+      </c>
+      <c r="C112">
+        <v>21</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,24 +69,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,22 +93,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +122,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,23 +160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,17 +175,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +196,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,6 +219,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -234,7 +246,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,79 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +318,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,25 +354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +400,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -416,17 +416,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,26 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,8 +469,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,7 +494,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,145 +521,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,641 +1196,649 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>341</v>
+            <v>337</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アイスエンチャント</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>401</v>
+            <v>341</v>
           </cell>
           <cell r="B58" t="str">
-            <v>セイントレーザー</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>402</v>
+            <v>401</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>403</v>
+            <v>402</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>404</v>
+            <v>403</v>
           </cell>
           <cell r="B61" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>405</v>
+            <v>404</v>
           </cell>
           <cell r="B62" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>411</v>
+            <v>405</v>
           </cell>
           <cell r="B63" t="str">
-            <v>エリクシール</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>412</v>
+            <v>411</v>
           </cell>
           <cell r="B64" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>413</v>
+            <v>412</v>
           </cell>
           <cell r="B65" t="str">
-            <v>エンジェルハイロウ</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>414</v>
+            <v>413</v>
           </cell>
           <cell r="B66" t="str">
-            <v>トリニティレイ</v>
+            <v>エンジェルハイロウ</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>421</v>
+            <v>414</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ホーリーグレイス</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>422</v>
+            <v>421</v>
           </cell>
           <cell r="B68" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>431</v>
+            <v>422</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ディバインシールド</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>432</v>
+            <v>431</v>
           </cell>
           <cell r="B70" t="str">
-            <v>メディケーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>433</v>
+            <v>432</v>
           </cell>
           <cell r="B71" t="str">
-            <v>エイミングスコープ</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>434</v>
+            <v>433</v>
           </cell>
           <cell r="B72" t="str">
-            <v>リジェネレーション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>435</v>
+            <v>434</v>
           </cell>
           <cell r="B73" t="str">
-            <v>アライアンス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>436</v>
+            <v>435</v>
           </cell>
           <cell r="B74" t="str">
-            <v>スペクトルマイン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>437</v>
+            <v>436</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>438</v>
+            <v>437</v>
           </cell>
           <cell r="B76" t="str">
-            <v>スペリオール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>441</v>
+            <v>438</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>501</v>
+            <v>441</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ダークプリズン</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>502</v>
+            <v>501</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>503</v>
+            <v>502</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="B81" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>505</v>
+            <v>504</v>
           </cell>
           <cell r="B82" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>511</v>
+            <v>505</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ディストラクション</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>512</v>
+            <v>511</v>
           </cell>
           <cell r="B84" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>521</v>
+            <v>512</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ダークネス</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>531</v>
+            <v>521</v>
           </cell>
           <cell r="B86" t="str">
-            <v>イーグルアイ</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>532</v>
+            <v>531</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>533</v>
+            <v>532</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>534</v>
+            <v>533</v>
           </cell>
           <cell r="B89" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>535</v>
+            <v>534</v>
           </cell>
           <cell r="B90" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>536</v>
+            <v>535</v>
           </cell>
           <cell r="B91" t="str">
-            <v>アンデッドペイン</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>541</v>
+            <v>536</v>
           </cell>
           <cell r="B92" t="str">
-            <v>ダークエンチャント</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>601</v>
+            <v>541</v>
           </cell>
           <cell r="B93" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1000</v>
+            <v>601</v>
           </cell>
           <cell r="B94" t="str">
-            <v>愚者</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B95" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B96" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B97" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B98" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B99" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B100" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B101" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B102" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B103" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B104" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B105" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B106" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B107" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B108" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B109" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B110" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B111" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B112" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B113" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B114" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B115" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B116" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B117" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>1025</v>
+            <v>1024</v>
           </cell>
           <cell r="B118" t="str">
-            <v>貨幣</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>2001</v>
+            <v>1025</v>
           </cell>
           <cell r="B119" t="str">
-            <v>元素術・炎</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>2002</v>
+            <v>2001</v>
           </cell>
           <cell r="B120" t="str">
-            <v>元素術・雷</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>2003</v>
+            <v>2002</v>
           </cell>
           <cell r="B121" t="str">
-            <v>元素術・氷</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>2004</v>
+            <v>2003</v>
           </cell>
           <cell r="B122" t="str">
-            <v>光魔術</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>2005</v>
+            <v>2004</v>
           </cell>
           <cell r="B123" t="str">
-            <v>超次元術</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>2009</v>
+            <v>2005</v>
           </cell>
           <cell r="B124" t="str">
-            <v>はずす</v>
+            <v>超次元術</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>4001</v>
+            <v>2009</v>
           </cell>
           <cell r="B125" t="str">
-            <v>人体錬成+\d</v>
+            <v>はずす</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>4002</v>
+            <v>4001</v>
           </cell>
           <cell r="B126" t="str">
-            <v>理性拡張+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>4003</v>
+            <v>4002</v>
           </cell>
           <cell r="B127" t="str">
-            <v>存在修復+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>4004</v>
+            <v>4003</v>
           </cell>
           <cell r="B128" t="str">
-            <v>救済執行+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>4005</v>
+            <v>4004</v>
           </cell>
           <cell r="B129" t="str">
-            <v>素子補充+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>4101</v>
+            <v>4005</v>
           </cell>
           <cell r="B130" t="str">
-            <v>最大Hp+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>4102</v>
+            <v>4101</v>
           </cell>
           <cell r="B131" t="str">
-            <v>最大Mp+\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>4103</v>
+            <v>4102</v>
           </cell>
           <cell r="B132" t="str">
-            <v>ATK+\d</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>4104</v>
+            <v>4103</v>
           </cell>
           <cell r="B133" t="str">
-            <v>DEF+\d</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>4105</v>
+            <v>4104</v>
           </cell>
           <cell r="B134" t="str">
-            <v>SPD+\d</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>4201</v>
+            <v>4105</v>
           </cell>
           <cell r="B135" t="str">
-            <v>\d</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
+            <v>4201</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
             <v>4301</v>
           </cell>
-          <cell r="B136" t="str">
+          <cell r="B137" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2099,10 +2107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2431,7 +2439,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -2454,7 +2462,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2477,13 +2485,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2492,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2500,13 +2508,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>140</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2515,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2523,7 +2531,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>140</v>
@@ -2532,7 +2540,7 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2546,22 +2554,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2569,7 +2577,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -2592,22 +2600,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2615,19 +2623,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>1001</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2641,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2664,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2687,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2710,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2733,10 +2741,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2756,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2779,10 +2787,10 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2802,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2825,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2848,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2871,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2894,10 +2902,10 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2917,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2940,10 +2948,10 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2963,19 +2971,19 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>1015</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2983,7 +2991,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>100</v>
@@ -3006,7 +3014,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>100</v>
@@ -3024,50 +3032,50 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
       <c r="C41">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3075,7 +3083,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -3098,7 +3106,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -3116,50 +3124,50 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>200</v>
       </c>
       <c r="C45">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3167,7 +3175,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>300</v>
@@ -3190,7 +3198,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>300</v>
@@ -3208,50 +3216,50 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>300</v>
       </c>
       <c r="C49">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3259,7 +3267,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
         <v>400</v>
@@ -3282,7 +3290,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52">
         <v>400</v>
@@ -3300,50 +3308,50 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <v>400</v>
       </c>
       <c r="C53">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3351,7 +3359,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>1300</v>
@@ -3374,7 +3382,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>1300</v>
@@ -3392,50 +3400,50 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <v>1300</v>
       </c>
       <c r="C57">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3443,13 +3451,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>1400</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3466,13 +3474,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>1400</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3484,50 +3492,50 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <v>1400</v>
       </c>
       <c r="C61">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3535,7 +3543,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
         <v>500</v>
@@ -3558,7 +3566,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>500</v>
@@ -3576,50 +3584,50 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
         <v>500</v>
       </c>
       <c r="C65">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3627,13 +3635,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
         <v>2100</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3650,13 +3658,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>2100</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3673,22 +3681,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
         <v>2100</v>
       </c>
       <c r="C69">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -3696,22 +3704,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -3719,13 +3727,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
         <v>2200</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -3742,13 +3750,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <v>2200</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3765,22 +3773,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <v>2200</v>
       </c>
       <c r="C73">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3788,22 +3796,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3811,13 +3819,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
         <v>2300</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3834,13 +3842,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76">
         <v>2300</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -3857,22 +3865,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77">
         <v>2300</v>
       </c>
       <c r="C77">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3880,22 +3888,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3903,13 +3911,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <v>2400</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -3926,13 +3934,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80">
         <v>2400</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -3949,22 +3957,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81">
         <v>2400</v>
       </c>
       <c r="C81">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3972,22 +3980,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B82">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3995,13 +4003,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <v>2500</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -4018,13 +4026,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84">
         <v>2500</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -4041,22 +4049,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <v>2500</v>
       </c>
       <c r="C85">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -4064,22 +4072,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -4087,7 +4095,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87">
         <v>2600</v>
@@ -4110,22 +4118,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88">
         <v>2600</v>
       </c>
       <c r="C88">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -4133,22 +4141,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -4156,13 +4164,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90">
         <v>3300</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -4179,13 +4187,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91">
         <v>3300</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -4202,22 +4210,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92">
         <v>3300</v>
       </c>
       <c r="C92">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -4225,22 +4233,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -4248,13 +4256,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94">
         <v>3400</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -4271,13 +4279,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95">
         <v>3400</v>
       </c>
       <c r="C95">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -4294,24 +4302,47 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96">
         <v>3400</v>
       </c>
       <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>3400</v>
+      </c>
+      <c r="C97">
         <v>214</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
         <v>1</v>
       </c>
     </row>
@@ -4327,8 +4358,8 @@
   <sheetPr/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4581,14 +4612,14 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
+        <v>ディープフリーズ</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5021,14 +5052,14 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D38,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>アシッドラッシュ</v>
       </c>
     </row>
     <row r="39" spans="1:5">

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,15 +71,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,11 +122,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,29 +169,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,54 +200,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +219,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -234,7 +240,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,163 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,15 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,6 +442,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -474,45 +513,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -521,145 +521,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,7 +1127,7 @@
             <v>314</v>
           </cell>
           <cell r="B48" t="str">
-            <v>カガミニトリコメル</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="49">
@@ -1271,7 +1271,7 @@
             <v>413</v>
           </cell>
           <cell r="B66" t="str">
-            <v>エンジェルハイロウ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="67">
@@ -2109,8 +2109,8 @@
   <sheetPr/>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2445,7 +2445,7 @@
         <v>130</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>130</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4358,7 +4358,7 @@
   <sheetPr/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,6 +66,51 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,6 +123,35 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -93,45 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,60 +183,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -207,7 +192,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,37 +222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,13 +240,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +270,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,73 +378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,31 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,13 +416,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,17 +446,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +475,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,26 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,145 +521,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2109,7 +2109,7 @@
   <sheetPr/>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4358,8 +4358,8 @@
   <sheetPr/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4612,14 +4612,14 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>シールドスペル</v>
       </c>
     </row>
     <row r="15" spans="1:5">

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -69,6 +69,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -78,22 +85,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,24 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,11 +128,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,11 +150,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,15 +189,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +222,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +252,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,121 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,11 +448,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,30 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,6 +502,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -521,7 +521,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,7 +530,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,124 +542,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4358,8 +4358,8 @@
   <sheetPr/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -5107,14 +5107,14 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D41,[1]TextData!A:A))</f>
-        <v>スペクトルマイン</v>
+        <v>ホーミングクルセイド</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -56,9 +56,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,17 +70,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,16 +106,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,37 +136,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,19 +159,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,14 +187,6 @@
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +205,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -222,7 +222,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,37 +300,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,133 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,21 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,8 +434,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,17 +482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,145 +521,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4358,7 +4358,7 @@
   <sheetPr/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Troops.xlsx
+++ b/Assets/Resources/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,16 +83,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,8 +97,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,19 +175,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,54 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,31 +252,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,31 +306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,13 +330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,19 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +378,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,24 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -460,21 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +470,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -524,13 +524,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,127 +539,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,1041 +804,1105 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>41</v>
+            <v>33</v>
           </cell>
           <cell r="B8" t="str">
-            <v>アンデッド</v>
+            <v>居合</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="B9" t="str">
-            <v>アンデッド回復</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>101</v>
+            <v>42</v>
           </cell>
           <cell r="B10" t="str">
-            <v>ファイアボール</v>
+            <v>アンデッド回復</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>102</v>
+            <v>101</v>
           </cell>
           <cell r="B11" t="str">
-            <v>バーンストーム</v>
+            <v>ファイアボール</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>103</v>
+            <v>102</v>
           </cell>
           <cell r="B12" t="str">
-            <v>ヒートスタンプ</v>
+            <v>バーンストーム</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>104</v>
+            <v>103</v>
           </cell>
           <cell r="B13" t="str">
-            <v>ソードアダプト</v>
+            <v>ヒートスタンプ</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>111</v>
+            <v>104</v>
           </cell>
           <cell r="B14" t="str">
-            <v>インフェルノ</v>
+            <v>ソードアダプト</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="B15" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>121</v>
+            <v>112</v>
           </cell>
           <cell r="B16" t="str">
-            <v>メルトバースト</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>131</v>
+            <v>113</v>
           </cell>
           <cell r="B17" t="str">
-            <v>ウルフソウル</v>
+            <v>アダプテーション</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>132</v>
+            <v>114</v>
           </cell>
           <cell r="B18" t="str">
-            <v>プリディカメント</v>
+            <v>モエサカルホノオ</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>133</v>
+            <v>121</v>
           </cell>
           <cell r="B19" t="str">
-            <v>アサルトシフト</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>134</v>
+            <v>131</v>
           </cell>
           <cell r="B20" t="str">
-            <v>スタートダッシュ</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>135</v>
+            <v>132</v>
           </cell>
           <cell r="B21" t="str">
-            <v>ライズアップマインド</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>136</v>
+            <v>133</v>
           </cell>
           <cell r="B22" t="str">
-            <v>イグナイテッド</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>137</v>
+            <v>134</v>
           </cell>
           <cell r="B23" t="str">
-            <v>アフターバーナー</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>141</v>
+            <v>135</v>
           </cell>
           <cell r="B24" t="str">
-            <v>ファイアエンチャント</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>201</v>
+            <v>136</v>
           </cell>
           <cell r="B25" t="str">
-            <v>ディスチャージ</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>202</v>
+            <v>137</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ライトニングウェブ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>203</v>
+            <v>141</v>
           </cell>
           <cell r="B27" t="str">
-            <v>シャープコード</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>204</v>
+            <v>201</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ショックインパルス</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>205</v>
+            <v>202</v>
           </cell>
           <cell r="B29" t="str">
-            <v>トラストチェイン</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>211</v>
+            <v>203</v>
           </cell>
           <cell r="B30" t="str">
-            <v>ステップリーダー</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>212</v>
+            <v>204</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>221</v>
+            <v>205</v>
           </cell>
           <cell r="B32" t="str">
-            <v>アクセラレイト</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>231</v>
+            <v>211</v>
           </cell>
           <cell r="B33" t="str">
-            <v>エクステンション</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>232</v>
+            <v>212</v>
           </cell>
           <cell r="B34" t="str">
-            <v>スパークフォグ</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>233</v>
+            <v>213</v>
           </cell>
           <cell r="B35" t="str">
-            <v>スウィフトカレント</v>
+            <v>コウソクテンカイ</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>234</v>
+            <v>214</v>
           </cell>
           <cell r="B36" t="str">
-            <v>ファストキャスター</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>235</v>
+            <v>221</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ヘブンリーラック</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>236</v>
+            <v>222</v>
           </cell>
           <cell r="B38" t="str">
-            <v>クイックアクト</v>
+            <v>ヴェンジェンス</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>241</v>
+            <v>231</v>
           </cell>
           <cell r="B39" t="str">
-            <v>サンダーエンチャント</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>301</v>
+            <v>232</v>
           </cell>
           <cell r="B40" t="str">
-            <v>アイスブレイド</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>302</v>
+            <v>233</v>
           </cell>
           <cell r="B41" t="str">
-            <v>カウンターオーラ</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>303</v>
+            <v>234</v>
           </cell>
           <cell r="B42" t="str">
-            <v>シールドスペル</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>304</v>
+            <v>235</v>
           </cell>
           <cell r="B43" t="str">
-            <v>エスコートソール</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>305</v>
+            <v>236</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ディープフリーズ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>311</v>
+            <v>241</v>
           </cell>
           <cell r="B45" t="str">
-            <v>フリジットシェル</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>312</v>
+            <v>301</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>313</v>
+            <v>302</v>
           </cell>
           <cell r="B47" t="str">
-            <v>アンチドード</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>314</v>
+            <v>303</v>
           </cell>
           <cell r="B48" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>321</v>
+            <v>304</v>
           </cell>
           <cell r="B49" t="str">
-            <v>バブルブロウ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>322</v>
+            <v>305</v>
           </cell>
           <cell r="B50" t="str">
-            <v>アクアミラージュ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>331</v>
+            <v>311</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ガーディアンソウル</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>332</v>
+            <v>312</v>
           </cell>
           <cell r="B52" t="str">
-            <v>アーマーコード</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>333</v>
+            <v>313</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ガードシフト</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>334</v>
+            <v>314</v>
           </cell>
           <cell r="B54" t="str">
-            <v>ノーリミット</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>335</v>
+            <v>321</v>
           </cell>
           <cell r="B55" t="str">
-            <v>カウンターヒール</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>336</v>
+            <v>322</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ペイシャンス</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>337</v>
+            <v>331</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アシッドラッシュ</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>341</v>
+            <v>332</v>
           </cell>
           <cell r="B58" t="str">
-            <v>アイスエンチャント</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>401</v>
+            <v>333</v>
           </cell>
           <cell r="B59" t="str">
-            <v>セイントレーザー</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>402</v>
+            <v>334</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ペネトレイト</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>403</v>
+            <v>335</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ヒーリング</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>404</v>
+            <v>336</v>
           </cell>
           <cell r="B62" t="str">
-            <v>リフレッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>405</v>
+            <v>337</v>
           </cell>
           <cell r="B63" t="str">
-            <v>べネディクション</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>411</v>
+            <v>341</v>
           </cell>
           <cell r="B64" t="str">
-            <v>エリクシール</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>412</v>
+            <v>401</v>
           </cell>
           <cell r="B65" t="str">
-            <v>エンジェルフェザー</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>413</v>
+            <v>402</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ブレークザウォール</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>414</v>
+            <v>403</v>
           </cell>
           <cell r="B67" t="str">
-            <v>トリニティレイ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>421</v>
+            <v>404</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ホーリーグレイス</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>422</v>
+            <v>405</v>
           </cell>
           <cell r="B69" t="str">
-            <v>プリズムリフレクター</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>431</v>
+            <v>411</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ディバインシールド</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>432</v>
+            <v>412</v>
           </cell>
           <cell r="B71" t="str">
-            <v>メディケーション</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>433</v>
+            <v>413</v>
           </cell>
           <cell r="B72" t="str">
-            <v>エイミングスコープ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>434</v>
+            <v>414</v>
           </cell>
           <cell r="B73" t="str">
-            <v>リジェネレーション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>435</v>
+            <v>421</v>
           </cell>
           <cell r="B74" t="str">
-            <v>アライアンス</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>436</v>
+            <v>422</v>
           </cell>
           <cell r="B75" t="str">
-            <v>スペクトルマイン</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>437</v>
+            <v>431</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>438</v>
+            <v>432</v>
           </cell>
           <cell r="B77" t="str">
-            <v>スペリオール</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>441</v>
+            <v>433</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>501</v>
+            <v>434</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ダークプリズン</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>502</v>
+            <v>435</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ユーサネイジア</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>503</v>
+            <v>436</v>
           </cell>
           <cell r="B81" t="str">
-            <v>ドレインヒール</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>504</v>
+            <v>437</v>
           </cell>
           <cell r="B82" t="str">
-            <v>デリートマジック</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>505</v>
+            <v>438</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ディプラヴィティ</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>511</v>
+            <v>441</v>
           </cell>
           <cell r="B84" t="str">
-            <v>ディストラクション</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>512</v>
+            <v>501</v>
           </cell>
           <cell r="B85" t="str">
-            <v>カオスペイン</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>521</v>
+            <v>502</v>
           </cell>
           <cell r="B86" t="str">
-            <v>ダークネス</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>531</v>
+            <v>503</v>
           </cell>
           <cell r="B87" t="str">
-            <v>イーグルアイ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>532</v>
+            <v>504</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ネヴァーエンド</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>533</v>
+            <v>505</v>
           </cell>
           <cell r="B89" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>534</v>
+            <v>511</v>
           </cell>
           <cell r="B90" t="str">
-            <v>スカルグラッジ</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>535</v>
+            <v>512</v>
           </cell>
           <cell r="B91" t="str">
-            <v>クリープアウト</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>536</v>
+            <v>513</v>
           </cell>
           <cell r="B92" t="str">
-            <v>アンデッドペイン</v>
+            <v>セルフハーム</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>541</v>
+            <v>514</v>
           </cell>
           <cell r="B93" t="str">
-            <v>ダークエンチャント</v>
+            <v>スィートスイサード</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>601</v>
+            <v>521</v>
           </cell>
           <cell r="B94" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1000</v>
+            <v>531</v>
           </cell>
           <cell r="B95" t="str">
-            <v>愚者</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1001</v>
+            <v>532</v>
           </cell>
           <cell r="B96" t="str">
-            <v>魔術師</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1002</v>
+            <v>533</v>
           </cell>
           <cell r="B97" t="str">
-            <v>女帝</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>1003</v>
+            <v>534</v>
           </cell>
           <cell r="B98" t="str">
-            <v>女教皇</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>1004</v>
+            <v>535</v>
           </cell>
           <cell r="B99" t="str">
-            <v>皇帝</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>1005</v>
+            <v>536</v>
           </cell>
           <cell r="B100" t="str">
-            <v>法王</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>1006</v>
+            <v>541</v>
           </cell>
           <cell r="B101" t="str">
-            <v>恋愛</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>1007</v>
+            <v>601</v>
           </cell>
           <cell r="B102" t="str">
-            <v>戦車</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>1008</v>
+            <v>1000</v>
           </cell>
           <cell r="B103" t="str">
-            <v>正義</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>1009</v>
+            <v>1001</v>
           </cell>
           <cell r="B104" t="str">
-            <v>隠者</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>1010</v>
+            <v>1002</v>
           </cell>
           <cell r="B105" t="str">
-            <v>運命</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1011</v>
+            <v>1003</v>
           </cell>
           <cell r="B106" t="str">
-            <v>剛毅</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1012</v>
+            <v>1004</v>
           </cell>
           <cell r="B107" t="str">
-            <v>刑死者</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1013</v>
+            <v>1005</v>
           </cell>
           <cell r="B108" t="str">
-            <v>死神</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1014</v>
+            <v>1006</v>
           </cell>
           <cell r="B109" t="str">
-            <v>節制</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1015</v>
+            <v>1007</v>
           </cell>
           <cell r="B110" t="str">
-            <v>悪魔</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1016</v>
+            <v>1008</v>
           </cell>
           <cell r="B111" t="str">
-            <v>塔</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>1017</v>
+            <v>1009</v>
           </cell>
           <cell r="B112" t="str">
-            <v>星</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>1018</v>
+            <v>1010</v>
           </cell>
           <cell r="B113" t="str">
-            <v>月</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>1019</v>
+            <v>1011</v>
           </cell>
           <cell r="B114" t="str">
-            <v>太陽</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>1020</v>
+            <v>1012</v>
           </cell>
           <cell r="B115" t="str">
-            <v>審判</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>1022</v>
+            <v>1013</v>
           </cell>
           <cell r="B116" t="str">
-            <v>杖</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>1023</v>
+            <v>1014</v>
           </cell>
           <cell r="B117" t="str">
-            <v>器</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>1024</v>
+            <v>1015</v>
           </cell>
           <cell r="B118" t="str">
-            <v>剣</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>1025</v>
+            <v>1016</v>
           </cell>
           <cell r="B119" t="str">
-            <v>貨幣</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>2001</v>
+            <v>1017</v>
           </cell>
           <cell r="B120" t="str">
-            <v>元素術・炎</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>2002</v>
+            <v>1018</v>
           </cell>
           <cell r="B121" t="str">
-            <v>元素術・雷</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>2003</v>
+            <v>1019</v>
           </cell>
           <cell r="B122" t="str">
-            <v>元素術・氷</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>2004</v>
+            <v>1020</v>
           </cell>
           <cell r="B123" t="str">
-            <v>光魔術</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>2005</v>
+            <v>1022</v>
           </cell>
           <cell r="B124" t="str">
-            <v>超次元術</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>2009</v>
+            <v>1023</v>
           </cell>
           <cell r="B125" t="str">
-            <v>はずす</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>4001</v>
+            <v>1024</v>
           </cell>
           <cell r="B126" t="str">
-            <v>人体錬成+\d</v>
+            <v>剣</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>4002</v>
+            <v>1025</v>
           </cell>
           <cell r="B127" t="str">
-            <v>理性拡張+\d</v>
+            <v>貨幣</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>4003</v>
+            <v>2001</v>
           </cell>
           <cell r="B128" t="str">
-            <v>存在修復+\d</v>
+            <v>元素術・炎</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>4004</v>
+            <v>2002</v>
           </cell>
           <cell r="B129" t="str">
-            <v>救済執行+\d</v>
+            <v>元素術・雷</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>4005</v>
+            <v>2003</v>
           </cell>
           <cell r="B130" t="str">
-            <v>素子補充+\d</v>
+            <v>元素術・氷</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>4101</v>
+            <v>2004</v>
           </cell>
           <cell r="B131" t="str">
-            <v>最大Hp+\d</v>
+            <v>光魔術</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>4102</v>
+            <v>2005</v>
           </cell>
           <cell r="B132" t="str">
-            <v>最大Mp+\d</v>
+            <v>超次元術</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>4103</v>
+            <v>2009</v>
           </cell>
           <cell r="B133" t="str">
-            <v>ATK+\d</v>
+            <v>はずす</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>4104</v>
+            <v>4001</v>
           </cell>
           <cell r="B134" t="str">
-            <v>DEF+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>4105</v>
+            <v>4002</v>
           </cell>
           <cell r="B135" t="str">
-            <v>SPD+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>4201</v>
+            <v>4003</v>
           </cell>
           <cell r="B136" t="str">
-            <v>\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
+            <v>4004</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>救済執行+\d</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>4005</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>素子補充+\d</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>4101</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>最大Hp+\d</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>4102</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>最大Mp+\d</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>4103</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>ATK+\d</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>4104</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>DEF+\d</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>4105</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>SPD+\d</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>4201</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
             <v>4301</v>
           </cell>
-          <cell r="B137" t="str">
+          <cell r="B145" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2107,10 +2171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2649,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1001</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2658,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2669,22 +2733,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>1002</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2692,19 +2756,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>1003</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2718,10 +2782,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2741,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2764,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2787,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2810,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2833,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2856,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2879,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2902,10 +2966,10 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2925,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2948,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2971,10 +3035,10 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2994,19 +3058,19 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>1013</v>
       </c>
       <c r="C39">
         <v>13</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3014,22 +3078,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>1014</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3037,45 +3101,45 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>1015</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
       <c r="C42">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3083,13 +3147,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -3106,13 +3170,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -3124,50 +3188,50 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>200</v>
       </c>
       <c r="C46">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3175,13 +3239,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -3198,13 +3262,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -3216,50 +3280,50 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>300</v>
       </c>
       <c r="C50">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3267,13 +3331,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3290,13 +3354,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3308,50 +3372,50 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>400</v>
       </c>
       <c r="C54">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3359,13 +3423,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3382,13 +3446,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3400,50 +3464,50 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>1300</v>
       </c>
       <c r="C58">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3451,13 +3515,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3474,13 +3538,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3492,50 +3556,50 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>1400</v>
       </c>
       <c r="C62">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3543,13 +3607,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3566,13 +3630,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3584,50 +3648,50 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>500</v>
       </c>
       <c r="C66">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3635,13 +3699,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3658,13 +3722,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3676,27 +3740,27 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -3704,22 +3768,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>2100</v>
       </c>
       <c r="C70">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -3727,13 +3791,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -3750,13 +3814,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3773,22 +3837,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3796,22 +3860,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>2200</v>
       </c>
       <c r="C74">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3819,13 +3883,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3842,13 +3906,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -3865,22 +3929,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3888,22 +3952,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <v>2300</v>
       </c>
       <c r="C78">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3911,13 +3975,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -3934,13 +3998,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -3957,22 +4021,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3980,22 +4044,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B82">
         <v>2400</v>
       </c>
       <c r="C82">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -4003,13 +4067,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -4026,13 +4090,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -4049,22 +4113,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -4072,22 +4136,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <v>2500</v>
       </c>
       <c r="C86">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -4095,13 +4159,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -4118,13 +4182,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -4141,13 +4205,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C89">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4167,10 +4231,10 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -4190,10 +4254,10 @@
         <v>2</v>
       </c>
       <c r="B91">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -4213,19 +4277,19 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -4233,22 +4297,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>3300</v>
       </c>
       <c r="C93">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -4256,13 +4320,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -4279,13 +4343,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -4302,22 +4366,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B96">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C96">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -4325,24 +4389,93 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B97">
         <v>3400</v>
       </c>
       <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>3400</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>3400</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>3400</v>
+      </c>
+      <c r="C100">
         <v>214</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
         <v>1</v>
       </c>
     </row>
@@ -4356,10 +4489,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4771,20 +4904,20 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>121</v>
+        <v>533</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>ネガティブドレイン</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4792,13 +4925,13 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -4809,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4826,20 +4959,20 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D26,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+        <v>メルトバースト</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4847,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4864,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -4881,20 +5014,20 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D29,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>シャープコード</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4902,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4919,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -4936,20 +5069,20 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="E32">
         <v>100</v>
       </c>
       <c r="F32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D32,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>エスコートソール</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4957,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4974,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4991,20 +5124,20 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>503</v>
+        <v>421</v>
       </c>
       <c r="E35">
         <v>100</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D35,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>ホーリーグレイス</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5012,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -5029,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5046,20 +5179,20 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>337</v>
+        <v>503</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D38,[1]TextData!A:A))</f>
-        <v>アシッドラッシュ</v>
+        <v>ドレインヒール</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5067,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -5084,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5101,20 +5234,20 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
       <c r="F41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D41,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>アシッドラッシュ</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5122,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -5139,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5156,20 +5289,20 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1001</v>
+        <v>1400</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>321</v>
+        <v>437</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D44,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>ホーミングクルセイド</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5177,13 +5310,13 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1001</v>
+        <v>1400</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -5194,13 +5327,13 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1001</v>
+        <v>1400</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -5211,20 +5344,20 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="E47">
         <v>100</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D47,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>バブルブロウ</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5232,10 +5365,10 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5249,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5266,20 +5399,20 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>205</v>
+        <v>505</v>
       </c>
       <c r="E50">
         <v>100</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D50,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ディプラヴィティ</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5287,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5304,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5321,20 +5454,20 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
       <c r="F53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D53,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>トラストチェイン</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5342,10 +5475,10 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5359,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5376,20 +5509,20 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="E56">
         <v>100</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D56,[1]TextData!A:A))</f>
-        <v>スパークフォグ</v>
+        <v>ウルフソウル</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5397,10 +5530,10 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -5409,12 +5542,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" ht="12" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -5431,20 +5564,20 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>405</v>
+        <v>232</v>
       </c>
       <c r="E59">
         <v>100</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D59,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>スパークフォグ</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5452,10 +5585,10 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -5464,12 +5597,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" ht="12" customHeight="1" spans="1:5">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -5486,20 +5619,20 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>504</v>
+        <v>405</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
+        <v>べネディクション</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5507,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -5524,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -5541,20 +5674,20 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>331</v>
+        <v>504</v>
       </c>
       <c r="E65">
         <v>100</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D65,[1]TextData!A:A))</f>
-        <v>ガーディアンソウル</v>
+        <v>デリートマジック</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5562,10 +5695,10 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -5579,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -5596,20 +5729,20 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>103</v>
+        <v>331</v>
       </c>
       <c r="E68">
         <v>100</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D68,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>ガーディアンソウル</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5617,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5634,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -5651,20 +5784,20 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="E71">
         <v>100</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D71,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>ヒートスタンプ</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5672,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5689,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -5706,20 +5839,20 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="E74">
         <v>100</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D74,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
+        <v>ショックインパルス</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5727,10 +5860,10 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5744,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5761,20 +5894,20 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>521</v>
+        <v>303</v>
       </c>
       <c r="E77">
         <v>100</v>
       </c>
       <c r="F77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D77,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>シールドスペル</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5782,10 +5915,10 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -5799,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -5816,20 +5949,20 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="E80">
         <v>100</v>
       </c>
       <c r="F80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D80,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>ダークネス</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5837,10 +5970,10 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -5854,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5871,20 +6004,20 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
       <c r="F83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D83,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>リフレッシュ</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5892,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="B84">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C84">
         <v>14</v>
@@ -5909,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5926,20 +6059,20 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="E86">
         <v>100</v>
       </c>
       <c r="F86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D86,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>ディバインシールド</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5947,10 +6080,10 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5964,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="B88">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -5976,21 +6109,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>1</v>
       </c>
       <c r="B89">
-        <v>2100</v>
+        <v>1015</v>
       </c>
       <c r="C89">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="E89">
         <v>100</v>
+      </c>
+      <c r="F89" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D89,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5998,13 +6135,13 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>2100</v>
+        <v>1015</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -6015,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="B91">
-        <v>2100</v>
+        <v>1015</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -6032,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="B92">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C92">
         <v>22</v>
@@ -6049,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -6066,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6083,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C95">
         <v>22</v>
@@ -6100,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -6117,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -6134,13 +6271,13 @@
         <v>1</v>
       </c>
       <c r="B98">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C98">
         <v>22</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -6151,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -6168,16 +6305,16 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -6185,13 +6322,13 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C101">
         <v>22</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -6202,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -6219,16 +6356,16 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -6236,13 +6373,13 @@
         <v>1</v>
       </c>
       <c r="B104">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C104">
         <v>22</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -6253,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -6270,16 +6407,16 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C106">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -6287,13 +6424,13 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C107">
         <v>22</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -6304,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="B108">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -6321,16 +6458,16 @@
         <v>1</v>
       </c>
       <c r="B109">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -6338,13 +6475,13 @@
         <v>1</v>
       </c>
       <c r="B110">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C110">
         <v>22</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>100</v>
@@ -6355,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="B111">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -6372,15 +6509,66 @@
         <v>1</v>
       </c>
       <c r="B112">
+        <v>3300</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
         <v>3400</v>
       </c>
-      <c r="C112">
+      <c r="C113">
+        <v>22</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>3400</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>3400</v>
+      </c>
+      <c r="C115">
         <v>21</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>0</v>
       </c>
     </row>
